--- a/Config Files/AOC-4_NBFC_nodes_seperated_config_new.xlsx
+++ b/Config Files/AOC-4_NBFC_nodes_seperated_config_new.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\MCA Portal\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DC191005-D46C-46DE-A4AB-99B0E72D8FBB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5982380B-E71B-4916-B9F4-7DAB303EB20D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -16,6 +16,9 @@
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$I$237</definedName>
+  </definedNames>
   <calcPr calcId="0"/>
 </workbook>
 </file>
@@ -2919,8 +2922,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:I253"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A219" workbookViewId="0">
-      <selection activeCell="E232" sqref="E232"/>
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+      <selection activeCell="E228" sqref="E228"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -9678,6 +9681,7 @@
       <c r="I253" s="10"/>
     </row>
   </sheetData>
+  <autoFilter ref="A1:I237" xr:uid="{00000000-0001-0000-0000-000000000000}"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait"/>
   <headerFooter>

--- a/Config Files/AOC-4_NBFC_nodes_seperated_config_new.xlsx
+++ b/Config Files/AOC-4_NBFC_nodes_seperated_config_new.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\MCA Portal\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5982380B-E71B-4916-B9F4-7DAB303EB20D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{20AAFC30-F3C3-446F-8683-C83A47C33FB0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1981" uniqueCount="365">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1993" uniqueCount="367">
   <si>
     <t>Field_Name</t>
   </si>
@@ -1120,13 +1120,19 @@
   </si>
   <si>
     <t>NBFC_IND AS</t>
+  </si>
+  <si>
+    <t>disclosures_auditor_report</t>
+  </si>
+  <si>
+    <t>disclosures_director_report</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="7">
     <font>
       <sz val="11"/>
       <color indexed="8"/>
@@ -1152,6 +1158,20 @@
       <sz val="10"/>
       <color indexed="8"/>
       <name val="Arial Unicode MS"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Helvetica Neue"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF343434"/>
+      <name val="Helvetica Neue"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="5">
@@ -1638,7 +1658,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="81">
+  <cellXfs count="83">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="49" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -1790,6 +1810,8 @@
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -2922,11 +2944,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:I253"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="E228" sqref="E228"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A219" workbookViewId="0">
+      <selection activeCell="E240" sqref="E240"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" customHeight="1"/>
   <cols>
     <col min="1" max="1" width="44" style="1" customWidth="1"/>
     <col min="2" max="2" width="15.28515625" style="1" customWidth="1"/>
@@ -2941,7 +2963,7 @@
     <col min="11" max="16384" width="8.85546875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9" ht="13.5" customHeight="1">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -2970,7 +2992,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:9" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:9" ht="13.5" customHeight="1">
       <c r="A2" s="8" t="s">
         <v>9</v>
       </c>
@@ -2983,7 +3005,7 @@
       <c r="H2" s="11"/>
       <c r="I2" s="10"/>
     </row>
-    <row r="3" spans="1:9" ht="13.7" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:9" ht="13.7" customHeight="1">
       <c r="A3" s="12" t="s">
         <v>10</v>
       </c>
@@ -3010,7 +3032,7 @@
       </c>
       <c r="I3" s="10"/>
     </row>
-    <row r="4" spans="1:9" ht="13.7" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:9" ht="13.7" customHeight="1">
       <c r="A4" s="12" t="s">
         <v>17</v>
       </c>
@@ -3037,7 +3059,7 @@
       </c>
       <c r="I4" s="10"/>
     </row>
-    <row r="5" spans="1:9" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:9" ht="13.5" customHeight="1">
       <c r="A5" s="17" t="s">
         <v>19</v>
       </c>
@@ -3064,7 +3086,7 @@
       </c>
       <c r="I5" s="21"/>
     </row>
-    <row r="6" spans="1:9" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:9" ht="13.5" customHeight="1">
       <c r="A6" s="17" t="s">
         <v>22</v>
       </c>
@@ -3091,7 +3113,7 @@
       </c>
       <c r="I6" s="21"/>
     </row>
-    <row r="7" spans="1:9" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:9" ht="13.5" customHeight="1">
       <c r="A7" s="26" t="s">
         <v>23</v>
       </c>
@@ -3104,7 +3126,7 @@
       <c r="H7" s="11"/>
       <c r="I7" s="10"/>
     </row>
-    <row r="8" spans="1:9" ht="13.7" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:9" ht="13.7" customHeight="1">
       <c r="A8" s="12" t="s">
         <v>10</v>
       </c>
@@ -3131,7 +3153,7 @@
       </c>
       <c r="I8" s="10"/>
     </row>
-    <row r="9" spans="1:9" ht="13.7" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:9" ht="13.7" customHeight="1">
       <c r="A9" s="12" t="s">
         <v>17</v>
       </c>
@@ -3158,7 +3180,7 @@
       </c>
       <c r="I9" s="10"/>
     </row>
-    <row r="10" spans="1:9" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:9" ht="13.5" customHeight="1">
       <c r="A10" s="17" t="s">
         <v>19</v>
       </c>
@@ -3185,7 +3207,7 @@
       </c>
       <c r="I10" s="21"/>
     </row>
-    <row r="11" spans="1:9" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:9" ht="13.5" customHeight="1">
       <c r="A11" s="17" t="s">
         <v>22</v>
       </c>
@@ -3212,7 +3234,7 @@
       </c>
       <c r="I11" s="21"/>
     </row>
-    <row r="12" spans="1:9" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:9" ht="13.5" customHeight="1">
       <c r="A12" s="27" t="s">
         <v>26</v>
       </c>
@@ -3225,7 +3247,7 @@
       <c r="H12" s="11"/>
       <c r="I12" s="10"/>
     </row>
-    <row r="13" spans="1:9" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:9" ht="17.100000000000001" customHeight="1">
       <c r="A13" s="28" t="s">
         <v>27</v>
       </c>
@@ -3254,7 +3276,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="14" spans="1:9" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:9" ht="17.100000000000001" customHeight="1">
       <c r="A14" s="12" t="s">
         <v>30</v>
       </c>
@@ -3283,7 +3305,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="15" spans="1:9" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:9" ht="17.100000000000001" customHeight="1">
       <c r="A15" s="12" t="s">
         <v>32</v>
       </c>
@@ -3312,7 +3334,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="16" spans="1:9" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:9" ht="17.100000000000001" customHeight="1">
       <c r="A16" s="12" t="s">
         <v>34</v>
       </c>
@@ -3341,7 +3363,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="17" spans="1:9" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:9" ht="17.100000000000001" customHeight="1">
       <c r="A17" s="12" t="s">
         <v>36</v>
       </c>
@@ -3370,7 +3392,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="18" spans="1:9" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:9" ht="17.100000000000001" customHeight="1">
       <c r="A18" s="12" t="s">
         <v>38</v>
       </c>
@@ -3399,7 +3421,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="19" spans="1:9" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:9" ht="13.5" customHeight="1">
       <c r="A19" s="12" t="s">
         <v>40</v>
       </c>
@@ -3428,7 +3450,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="20" spans="1:9" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:9" ht="17.100000000000001" customHeight="1">
       <c r="A20" s="12" t="s">
         <v>42</v>
       </c>
@@ -3457,7 +3479,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="21" spans="1:9" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:9" ht="17.100000000000001" customHeight="1">
       <c r="A21" s="12" t="s">
         <v>44</v>
       </c>
@@ -3486,7 +3508,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="22" spans="1:9" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:9" ht="24" customHeight="1">
       <c r="A22" s="12" t="s">
         <v>46</v>
       </c>
@@ -3515,7 +3537,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="23" spans="1:9" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:9" ht="17.100000000000001" customHeight="1">
       <c r="A23" s="12" t="s">
         <v>48</v>
       </c>
@@ -3544,7 +3566,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="24" spans="1:9" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:9" ht="17.100000000000001" customHeight="1">
       <c r="A24" s="12" t="s">
         <v>50</v>
       </c>
@@ -3573,7 +3595,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="25" spans="1:9" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:9" ht="17.100000000000001" customHeight="1">
       <c r="A25" s="12" t="s">
         <v>52</v>
       </c>
@@ -3602,7 +3624,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="26" spans="1:9" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:9" ht="17.100000000000001" customHeight="1">
       <c r="A26" s="12" t="s">
         <v>54</v>
       </c>
@@ -3631,7 +3653,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="27" spans="1:9" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:9" ht="17.100000000000001" customHeight="1">
       <c r="A27" s="12" t="s">
         <v>56</v>
       </c>
@@ -3660,7 +3682,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="28" spans="1:9" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:9" ht="17.100000000000001" customHeight="1">
       <c r="A28" s="12" t="s">
         <v>58</v>
       </c>
@@ -3689,7 +3711,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="29" spans="1:9" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:9" ht="17.100000000000001" customHeight="1">
       <c r="A29" s="12" t="s">
         <v>60</v>
       </c>
@@ -3718,7 +3740,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="30" spans="1:9" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:9" ht="17.100000000000001" customHeight="1">
       <c r="A30" s="12" t="s">
         <v>62</v>
       </c>
@@ -3747,7 +3769,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="31" spans="1:9" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:9" ht="17.100000000000001" customHeight="1">
       <c r="A31" s="12" t="s">
         <v>64</v>
       </c>
@@ -3776,7 +3798,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="32" spans="1:9" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:9" ht="17.100000000000001" customHeight="1">
       <c r="A32" s="12" t="s">
         <v>66</v>
       </c>
@@ -3805,7 +3827,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="33" spans="1:9" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:9" ht="13.5" customHeight="1">
       <c r="A33" s="27" t="s">
         <v>68</v>
       </c>
@@ -3818,7 +3840,7 @@
       <c r="H33" s="10"/>
       <c r="I33" s="10"/>
     </row>
-    <row r="34" spans="1:9" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:9" ht="17.100000000000001" customHeight="1">
       <c r="A34" s="28" t="s">
         <v>27</v>
       </c>
@@ -3847,7 +3869,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="35" spans="1:9" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:9" ht="17.100000000000001" customHeight="1">
       <c r="A35" s="12" t="s">
         <v>30</v>
       </c>
@@ -3876,7 +3898,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="36" spans="1:9" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:9" ht="17.100000000000001" customHeight="1">
       <c r="A36" s="12" t="s">
         <v>32</v>
       </c>
@@ -3905,7 +3927,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="37" spans="1:9" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:9" ht="17.100000000000001" customHeight="1">
       <c r="A37" s="12" t="s">
         <v>34</v>
       </c>
@@ -3934,7 +3956,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="38" spans="1:9" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:9" ht="17.100000000000001" customHeight="1">
       <c r="A38" s="12" t="s">
         <v>36</v>
       </c>
@@ -3963,7 +3985,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="39" spans="1:9" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:9" ht="17.100000000000001" customHeight="1">
       <c r="A39" s="12" t="s">
         <v>38</v>
       </c>
@@ -3992,7 +4014,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="40" spans="1:9" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:9" ht="13.5" customHeight="1">
       <c r="A40" s="12" t="s">
         <v>40</v>
       </c>
@@ -4021,7 +4043,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="41" spans="1:9" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:9" ht="17.100000000000001" customHeight="1">
       <c r="A41" s="12" t="s">
         <v>42</v>
       </c>
@@ -4050,7 +4072,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="42" spans="1:9" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:9" ht="17.100000000000001" customHeight="1">
       <c r="A42" s="12" t="s">
         <v>44</v>
       </c>
@@ -4079,7 +4101,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="43" spans="1:9" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:9" ht="17.100000000000001" customHeight="1">
       <c r="A43" s="12" t="s">
         <v>46</v>
       </c>
@@ -4108,7 +4130,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="44" spans="1:9" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:9" ht="17.100000000000001" customHeight="1">
       <c r="A44" s="12" t="s">
         <v>48</v>
       </c>
@@ -4137,7 +4159,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="45" spans="1:9" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:9" ht="17.100000000000001" customHeight="1">
       <c r="A45" s="12" t="s">
         <v>50</v>
       </c>
@@ -4166,7 +4188,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="46" spans="1:9" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:9" ht="17.100000000000001" customHeight="1">
       <c r="A46" s="12" t="s">
         <v>52</v>
       </c>
@@ -4195,7 +4217,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="47" spans="1:9" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:9" ht="17.100000000000001" customHeight="1">
       <c r="A47" s="12" t="s">
         <v>54</v>
       </c>
@@ -4224,7 +4246,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="48" spans="1:9" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:9" ht="17.100000000000001" customHeight="1">
       <c r="A48" s="12" t="s">
         <v>56</v>
       </c>
@@ -4253,7 +4275,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="49" spans="1:9" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:9" ht="17.100000000000001" customHeight="1">
       <c r="A49" s="12" t="s">
         <v>58</v>
       </c>
@@ -4282,7 +4304,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="50" spans="1:9" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:9" ht="17.100000000000001" customHeight="1">
       <c r="A50" s="12" t="s">
         <v>60</v>
       </c>
@@ -4311,7 +4333,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="51" spans="1:9" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:9" ht="17.100000000000001" customHeight="1">
       <c r="A51" s="12" t="s">
         <v>62</v>
       </c>
@@ -4340,7 +4362,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="52" spans="1:9" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:9" ht="17.100000000000001" customHeight="1">
       <c r="A52" s="12" t="s">
         <v>64</v>
       </c>
@@ -4369,7 +4391,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="53" spans="1:9" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:9" ht="17.100000000000001" customHeight="1">
       <c r="A53" s="12" t="s">
         <v>66</v>
       </c>
@@ -4398,7 +4420,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="54" spans="1:9" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:9" ht="13.5" customHeight="1">
       <c r="A54" s="27" t="s">
         <v>89</v>
       </c>
@@ -4411,7 +4433,7 @@
       <c r="H54" s="10"/>
       <c r="I54" s="10"/>
     </row>
-    <row r="55" spans="1:9" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:9" ht="17.100000000000001" customHeight="1">
       <c r="A55" s="12" t="s">
         <v>90</v>
       </c>
@@ -4440,7 +4462,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="56" spans="1:9" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:9" ht="17.100000000000001" customHeight="1">
       <c r="A56" s="12" t="s">
         <v>93</v>
       </c>
@@ -4469,7 +4491,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="57" spans="1:9" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:9" ht="17.100000000000001" customHeight="1">
       <c r="A57" s="12" t="s">
         <v>95</v>
       </c>
@@ -4498,7 +4520,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="58" spans="1:9" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:9" ht="17.100000000000001" customHeight="1">
       <c r="A58" s="12" t="s">
         <v>97</v>
       </c>
@@ -4527,7 +4549,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="59" spans="1:9" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:9" ht="17.100000000000001" customHeight="1">
       <c r="A59" s="12" t="s">
         <v>99</v>
       </c>
@@ -4556,7 +4578,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="60" spans="1:9" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:9" ht="17.100000000000001" customHeight="1">
       <c r="A60" s="12" t="s">
         <v>101</v>
       </c>
@@ -4585,7 +4607,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="61" spans="1:9" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:9" ht="17.100000000000001" customHeight="1">
       <c r="A61" s="12" t="s">
         <v>103</v>
       </c>
@@ -4614,7 +4636,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="62" spans="1:9" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:9" ht="17.100000000000001" customHeight="1">
       <c r="A62" s="12" t="s">
         <v>105</v>
       </c>
@@ -4643,7 +4665,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="63" spans="1:9" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:9" ht="17.100000000000001" customHeight="1">
       <c r="A63" s="12" t="s">
         <v>107</v>
       </c>
@@ -4672,7 +4694,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="64" spans="1:9" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:9" ht="17.100000000000001" customHeight="1">
       <c r="A64" s="12" t="s">
         <v>109</v>
       </c>
@@ -4701,7 +4723,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="65" spans="1:9" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:9" ht="17.100000000000001" customHeight="1">
       <c r="A65" s="12" t="s">
         <v>111</v>
       </c>
@@ -4730,7 +4752,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="66" spans="1:9" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:9" ht="17.100000000000001" customHeight="1">
       <c r="A66" s="12" t="s">
         <v>113</v>
       </c>
@@ -4759,7 +4781,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="67" spans="1:9" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:9" ht="17.100000000000001" customHeight="1">
       <c r="A67" s="12" t="s">
         <v>115</v>
       </c>
@@ -4788,7 +4810,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="68" spans="1:9" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:9" ht="17.100000000000001" customHeight="1">
       <c r="A68" s="12" t="s">
         <v>117</v>
       </c>
@@ -4817,7 +4839,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="69" spans="1:9" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:9" ht="17.100000000000001" customHeight="1">
       <c r="A69" s="12" t="s">
         <v>119</v>
       </c>
@@ -4846,7 +4868,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="70" spans="1:9" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:9" ht="17.100000000000001" customHeight="1">
       <c r="A70" s="12" t="s">
         <v>121</v>
       </c>
@@ -4875,7 +4897,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="71" spans="1:9" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:9" ht="13.5" customHeight="1">
       <c r="A71" s="28" t="s">
         <v>123</v>
       </c>
@@ -4904,7 +4926,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="72" spans="1:9" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:9" ht="17.100000000000001" customHeight="1">
       <c r="A72" s="35" t="s">
         <v>125</v>
       </c>
@@ -4933,7 +4955,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="73" spans="1:9" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:9" ht="17.100000000000001" customHeight="1">
       <c r="A73" s="12" t="s">
         <v>128</v>
       </c>
@@ -4962,7 +4984,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="74" spans="1:9" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:9" ht="17.100000000000001" customHeight="1">
       <c r="A74" s="12" t="s">
         <v>130</v>
       </c>
@@ -4991,7 +5013,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="75" spans="1:9" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:9" ht="17.100000000000001" customHeight="1">
       <c r="A75" s="12" t="s">
         <v>132</v>
       </c>
@@ -5020,7 +5042,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="76" spans="1:9" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:9" ht="17.100000000000001" customHeight="1">
       <c r="A76" s="12" t="s">
         <v>134</v>
       </c>
@@ -5049,7 +5071,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="77" spans="1:9" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:9" ht="17.100000000000001" customHeight="1">
       <c r="A77" s="12" t="s">
         <v>136</v>
       </c>
@@ -5078,7 +5100,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="78" spans="1:9" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:9" ht="17.100000000000001" customHeight="1">
       <c r="A78" s="12" t="s">
         <v>138</v>
       </c>
@@ -5107,7 +5129,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="79" spans="1:9" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:9" ht="17.100000000000001" customHeight="1">
       <c r="A79" s="12" t="s">
         <v>140</v>
       </c>
@@ -5136,7 +5158,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="80" spans="1:9" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:9" ht="17.100000000000001" customHeight="1">
       <c r="A80" s="12" t="s">
         <v>142</v>
       </c>
@@ -5165,7 +5187,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="81" spans="1:9" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:9" ht="17.100000000000001" customHeight="1">
       <c r="A81" s="12" t="s">
         <v>144</v>
       </c>
@@ -5194,7 +5216,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="82" spans="1:9" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:9" ht="17.100000000000001" customHeight="1">
       <c r="A82" s="12" t="s">
         <v>146</v>
       </c>
@@ -5223,7 +5245,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="83" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:9" ht="30" customHeight="1">
       <c r="A83" s="12" t="s">
         <v>148</v>
       </c>
@@ -5252,7 +5274,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="84" spans="1:9" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:9" ht="17.100000000000001" customHeight="1">
       <c r="A84" s="12" t="s">
         <v>150</v>
       </c>
@@ -5281,7 +5303,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="85" spans="1:9" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:9" ht="17.100000000000001" customHeight="1">
       <c r="A85" s="12" t="s">
         <v>152</v>
       </c>
@@ -5310,7 +5332,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="86" spans="1:9" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:9" ht="13.5" customHeight="1">
       <c r="A86" s="28" t="s">
         <v>154</v>
       </c>
@@ -5339,7 +5361,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="87" spans="1:9" ht="45.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:9" ht="45.75" customHeight="1">
       <c r="A87" s="37" t="s">
         <v>156</v>
       </c>
@@ -5368,7 +5390,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="88" spans="1:9" ht="237.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:9" ht="237.75" customHeight="1">
       <c r="A88" s="42" t="s">
         <v>159</v>
       </c>
@@ -5397,7 +5419,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="89" spans="1:9" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:9" ht="13.5" customHeight="1">
       <c r="A89" s="27" t="s">
         <v>162</v>
       </c>
@@ -5410,7 +5432,7 @@
       <c r="H89" s="10"/>
       <c r="I89" s="11"/>
     </row>
-    <row r="90" spans="1:9" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:9" ht="17.100000000000001" customHeight="1">
       <c r="A90" s="12" t="s">
         <v>90</v>
       </c>
@@ -5439,7 +5461,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="91" spans="1:9" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:9" ht="17.100000000000001" customHeight="1">
       <c r="A91" s="12" t="s">
         <v>93</v>
       </c>
@@ -5468,7 +5490,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="92" spans="1:9" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:9" ht="17.100000000000001" customHeight="1">
       <c r="A92" s="12" t="s">
         <v>95</v>
       </c>
@@ -5497,7 +5519,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="93" spans="1:9" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:9" ht="17.100000000000001" customHeight="1">
       <c r="A93" s="12" t="s">
         <v>97</v>
       </c>
@@ -5526,7 +5548,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="94" spans="1:9" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:9" ht="17.100000000000001" customHeight="1">
       <c r="A94" s="12" t="s">
         <v>99</v>
       </c>
@@ -5555,7 +5577,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="95" spans="1:9" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:9" ht="17.100000000000001" customHeight="1">
       <c r="A95" s="12" t="s">
         <v>101</v>
       </c>
@@ -5584,7 +5606,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="96" spans="1:9" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:9" ht="17.100000000000001" customHeight="1">
       <c r="A96" s="12" t="s">
         <v>103</v>
       </c>
@@ -5613,7 +5635,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="97" spans="1:9" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:9" ht="17.100000000000001" customHeight="1">
       <c r="A97" s="12" t="s">
         <v>105</v>
       </c>
@@ -5642,7 +5664,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="98" spans="1:9" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:9" ht="17.100000000000001" customHeight="1">
       <c r="A98" s="12" t="s">
         <v>107</v>
       </c>
@@ -5671,7 +5693,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="99" spans="1:9" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:9" ht="17.100000000000001" customHeight="1">
       <c r="A99" s="12" t="s">
         <v>109</v>
       </c>
@@ -5700,7 +5722,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="100" spans="1:9" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:9" ht="17.100000000000001" customHeight="1">
       <c r="A100" s="12" t="s">
         <v>111</v>
       </c>
@@ -5729,7 +5751,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="101" spans="1:9" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:9" ht="17.100000000000001" customHeight="1">
       <c r="A101" s="12" t="s">
         <v>113</v>
       </c>
@@ -5758,7 +5780,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="102" spans="1:9" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:9" ht="17.100000000000001" customHeight="1">
       <c r="A102" s="12" t="s">
         <v>115</v>
       </c>
@@ -5787,7 +5809,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="103" spans="1:9" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:9" ht="17.100000000000001" customHeight="1">
       <c r="A103" s="12" t="s">
         <v>117</v>
       </c>
@@ -5816,7 +5838,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="104" spans="1:9" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:9" ht="17.100000000000001" customHeight="1">
       <c r="A104" s="12" t="s">
         <v>119</v>
       </c>
@@ -5845,7 +5867,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="105" spans="1:9" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:9" ht="17.100000000000001" customHeight="1">
       <c r="A105" s="12" t="s">
         <v>121</v>
       </c>
@@ -5874,7 +5896,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="106" spans="1:9" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:9" ht="13.5" customHeight="1">
       <c r="A106" s="28" t="s">
         <v>123</v>
       </c>
@@ -5903,7 +5925,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="107" spans="1:9" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:9" ht="17.100000000000001" customHeight="1">
       <c r="A107" s="35" t="s">
         <v>125</v>
       </c>
@@ -5932,7 +5954,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="108" spans="1:9" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:9" ht="17.100000000000001" customHeight="1">
       <c r="A108" s="12" t="s">
         <v>128</v>
       </c>
@@ -5961,7 +5983,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="109" spans="1:9" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:9" ht="17.100000000000001" customHeight="1">
       <c r="A109" s="12" t="s">
         <v>130</v>
       </c>
@@ -5990,7 +6012,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="110" spans="1:9" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:9" ht="17.100000000000001" customHeight="1">
       <c r="A110" s="12" t="s">
         <v>132</v>
       </c>
@@ -6019,7 +6041,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="111" spans="1:9" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:9" ht="17.100000000000001" customHeight="1">
       <c r="A111" s="12" t="s">
         <v>134</v>
       </c>
@@ -6048,7 +6070,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="112" spans="1:9" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:9" ht="17.100000000000001" customHeight="1">
       <c r="A112" s="12" t="s">
         <v>136</v>
       </c>
@@ -6077,7 +6099,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="113" spans="1:9" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:9" ht="17.100000000000001" customHeight="1">
       <c r="A113" s="12" t="s">
         <v>138</v>
       </c>
@@ -6106,7 +6128,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="114" spans="1:9" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:9" ht="17.100000000000001" customHeight="1">
       <c r="A114" s="12" t="s">
         <v>140</v>
       </c>
@@ -6135,7 +6157,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="115" spans="1:9" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:9" ht="17.100000000000001" customHeight="1">
       <c r="A115" s="12" t="s">
         <v>142</v>
       </c>
@@ -6164,7 +6186,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="116" spans="1:9" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:9" ht="17.100000000000001" customHeight="1">
       <c r="A116" s="12" t="s">
         <v>144</v>
       </c>
@@ -6193,7 +6215,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="117" spans="1:9" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:9" ht="17.100000000000001" customHeight="1">
       <c r="A117" s="12" t="s">
         <v>146</v>
       </c>
@@ -6222,7 +6244,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="118" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:9" ht="30" customHeight="1">
       <c r="A118" s="12" t="s">
         <v>148</v>
       </c>
@@ -6251,7 +6273,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="119" spans="1:9" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:9" ht="17.100000000000001" customHeight="1">
       <c r="A119" s="12" t="s">
         <v>150</v>
       </c>
@@ -6280,7 +6302,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="120" spans="1:9" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:9" ht="17.100000000000001" customHeight="1">
       <c r="A120" s="12" t="s">
         <v>152</v>
       </c>
@@ -6309,7 +6331,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="121" spans="1:9" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:9" ht="13.5" customHeight="1">
       <c r="A121" s="28" t="s">
         <v>154</v>
       </c>
@@ -6338,7 +6360,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="122" spans="1:9" ht="45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:9" ht="45" customHeight="1">
       <c r="A122" s="37" t="s">
         <v>194</v>
       </c>
@@ -6367,7 +6389,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="123" spans="1:9" ht="178.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:9" ht="178.5" customHeight="1">
       <c r="A123" s="42" t="s">
         <v>159</v>
       </c>
@@ -6396,7 +6418,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="124" spans="1:9" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:9" ht="21.75" customHeight="1">
       <c r="A124" s="43" t="s">
         <v>197</v>
       </c>
@@ -6409,7 +6431,7 @@
       <c r="H124" s="45"/>
       <c r="I124" s="46"/>
     </row>
-    <row r="125" spans="1:9" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:9" ht="21.75" customHeight="1">
       <c r="A125" s="17" t="s">
         <v>198</v>
       </c>
@@ -6438,7 +6460,7 @@
         <v>198</v>
       </c>
     </row>
-    <row r="126" spans="1:9" ht="84.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:9" ht="84.75" customHeight="1">
       <c r="A126" s="48" t="s">
         <v>201</v>
       </c>
@@ -6467,7 +6489,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="127" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:9" ht="30" customHeight="1">
       <c r="A127" s="17" t="s">
         <v>203</v>
       </c>
@@ -6496,7 +6518,7 @@
         <v>203</v>
       </c>
     </row>
-    <row r="128" spans="1:9" ht="46.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:9" ht="46.5" customHeight="1">
       <c r="A128" s="17" t="s">
         <v>205</v>
       </c>
@@ -6525,7 +6547,7 @@
         <v>205</v>
       </c>
     </row>
-    <row r="129" spans="1:9" ht="66" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:9" ht="66" customHeight="1">
       <c r="A129" s="17" t="s">
         <v>207</v>
       </c>
@@ -6554,7 +6576,7 @@
         <v>207</v>
       </c>
     </row>
-    <row r="130" spans="1:9" ht="33" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:9" ht="33" customHeight="1">
       <c r="A130" s="17" t="s">
         <v>209</v>
       </c>
@@ -6583,7 +6605,7 @@
         <v>209</v>
       </c>
     </row>
-    <row r="131" spans="1:9" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:9" ht="25.5" customHeight="1">
       <c r="A131" s="17" t="s">
         <v>211</v>
       </c>
@@ -6612,7 +6634,7 @@
         <v>211</v>
       </c>
     </row>
-    <row r="132" spans="1:9" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:9" ht="25.5" customHeight="1">
       <c r="A132" s="43" t="s">
         <v>213</v>
       </c>
@@ -6625,7 +6647,7 @@
       <c r="H132" s="10"/>
       <c r="I132" s="11"/>
     </row>
-    <row r="133" spans="1:9" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:9" ht="21.75" customHeight="1">
       <c r="A133" s="17" t="s">
         <v>198</v>
       </c>
@@ -6654,7 +6676,7 @@
         <v>198</v>
       </c>
     </row>
-    <row r="134" spans="1:9" ht="84.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:9" ht="84.75" customHeight="1">
       <c r="A134" s="48" t="s">
         <v>201</v>
       </c>
@@ -6683,7 +6705,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="135" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:9" ht="30" customHeight="1">
       <c r="A135" s="17" t="s">
         <v>203</v>
       </c>
@@ -6712,7 +6734,7 @@
         <v>203</v>
       </c>
     </row>
-    <row r="136" spans="1:9" ht="46.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:9" ht="46.5" customHeight="1">
       <c r="A136" s="17" t="s">
         <v>205</v>
       </c>
@@ -6741,7 +6763,7 @@
         <v>205</v>
       </c>
     </row>
-    <row r="137" spans="1:9" ht="66" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:9" ht="66" customHeight="1">
       <c r="A137" s="17" t="s">
         <v>207</v>
       </c>
@@ -6770,7 +6792,7 @@
         <v>207</v>
       </c>
     </row>
-    <row r="138" spans="1:9" ht="33" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:9" ht="33" customHeight="1">
       <c r="A138" s="17" t="s">
         <v>209</v>
       </c>
@@ -6799,7 +6821,7 @@
         <v>209</v>
       </c>
     </row>
-    <row r="139" spans="1:9" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:9" ht="25.5" customHeight="1">
       <c r="A139" s="17" t="s">
         <v>211</v>
       </c>
@@ -6828,7 +6850,7 @@
         <v>211</v>
       </c>
     </row>
-    <row r="140" spans="1:9" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:9" ht="13.5" customHeight="1">
       <c r="A140" s="55" t="s">
         <v>214</v>
       </c>
@@ -6841,7 +6863,7 @@
       <c r="H140" s="10"/>
       <c r="I140" s="56"/>
     </row>
-    <row r="141" spans="1:9" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:9" ht="13.5" customHeight="1">
       <c r="A141" s="17" t="s">
         <v>215</v>
       </c>
@@ -6870,7 +6892,7 @@
         <v>215</v>
       </c>
     </row>
-    <row r="142" spans="1:9" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:9" ht="13.5" customHeight="1">
       <c r="A142" s="17" t="s">
         <v>219</v>
       </c>
@@ -6899,7 +6921,7 @@
         <v>219</v>
       </c>
     </row>
-    <row r="143" spans="1:9" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:9" ht="17.100000000000001" customHeight="1">
       <c r="A143" s="12" t="s">
         <v>221</v>
       </c>
@@ -6928,7 +6950,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="144" spans="1:9" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:9" ht="17.100000000000001" customHeight="1">
       <c r="A144" s="12" t="s">
         <v>223</v>
       </c>
@@ -6957,7 +6979,7 @@
         <v>223</v>
       </c>
     </row>
-    <row r="145" spans="1:9" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:9" ht="17.100000000000001" customHeight="1">
       <c r="A145" s="12" t="s">
         <v>225</v>
       </c>
@@ -6986,7 +7008,7 @@
         <v>225</v>
       </c>
     </row>
-    <row r="146" spans="1:9" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:9" ht="17.100000000000001" customHeight="1">
       <c r="A146" s="12" t="s">
         <v>227</v>
       </c>
@@ -7015,7 +7037,7 @@
         <v>227</v>
       </c>
     </row>
-    <row r="147" spans="1:9" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:9" ht="17.100000000000001" customHeight="1">
       <c r="A147" s="12" t="s">
         <v>229</v>
       </c>
@@ -7044,7 +7066,7 @@
         <v>229</v>
       </c>
     </row>
-    <row r="148" spans="1:9" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:9" ht="17.100000000000001" customHeight="1">
       <c r="A148" s="12" t="s">
         <v>231</v>
       </c>
@@ -7073,7 +7095,7 @@
         <v>231</v>
       </c>
     </row>
-    <row r="149" spans="1:9" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:9" ht="17.100000000000001" customHeight="1">
       <c r="A149" s="12" t="s">
         <v>233</v>
       </c>
@@ -7102,7 +7124,7 @@
         <v>233</v>
       </c>
     </row>
-    <row r="150" spans="1:9" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:9" ht="13.5" customHeight="1">
       <c r="A150" s="55" t="s">
         <v>235</v>
       </c>
@@ -7115,7 +7137,7 @@
       <c r="H150" s="10"/>
       <c r="I150" s="10"/>
     </row>
-    <row r="151" spans="1:9" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:9" ht="13.5" customHeight="1">
       <c r="A151" s="17" t="s">
         <v>215</v>
       </c>
@@ -7144,7 +7166,7 @@
         <v>215</v>
       </c>
     </row>
-    <row r="152" spans="1:9" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:9" ht="13.5" customHeight="1">
       <c r="A152" s="17" t="s">
         <v>219</v>
       </c>
@@ -7173,7 +7195,7 @@
         <v>219</v>
       </c>
     </row>
-    <row r="153" spans="1:9" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:9" ht="17.100000000000001" customHeight="1">
       <c r="A153" s="12" t="s">
         <v>221</v>
       </c>
@@ -7202,7 +7224,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="154" spans="1:9" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:9" ht="17.100000000000001" customHeight="1">
       <c r="A154" s="12" t="s">
         <v>223</v>
       </c>
@@ -7231,7 +7253,7 @@
         <v>223</v>
       </c>
     </row>
-    <row r="155" spans="1:9" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:9" ht="17.100000000000001" customHeight="1">
       <c r="A155" s="12" t="s">
         <v>225</v>
       </c>
@@ -7260,7 +7282,7 @@
         <v>225</v>
       </c>
     </row>
-    <row r="156" spans="1:9" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:9" ht="17.100000000000001" customHeight="1">
       <c r="A156" s="12" t="s">
         <v>227</v>
       </c>
@@ -7289,7 +7311,7 @@
         <v>227</v>
       </c>
     </row>
-    <row r="157" spans="1:9" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:9" ht="17.100000000000001" customHeight="1">
       <c r="A157" s="12" t="s">
         <v>229</v>
       </c>
@@ -7318,7 +7340,7 @@
         <v>229</v>
       </c>
     </row>
-    <row r="158" spans="1:9" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:9" ht="17.100000000000001" customHeight="1">
       <c r="A158" s="12" t="s">
         <v>231</v>
       </c>
@@ -7347,7 +7369,7 @@
         <v>231</v>
       </c>
     </row>
-    <row r="159" spans="1:9" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:9" ht="17.100000000000001" customHeight="1">
       <c r="A159" s="12" t="s">
         <v>233</v>
       </c>
@@ -7376,7 +7398,7 @@
         <v>233</v>
       </c>
     </row>
-    <row r="160" spans="1:9" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:9" ht="13.5" customHeight="1">
       <c r="A160" s="59" t="s">
         <v>245</v>
       </c>
@@ -7389,7 +7411,7 @@
       <c r="H160" s="10"/>
       <c r="I160" s="60"/>
     </row>
-    <row r="161" spans="1:9" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="161" spans="1:9" ht="13.5" customHeight="1">
       <c r="A161" s="61" t="s">
         <v>246</v>
       </c>
@@ -7418,7 +7440,7 @@
         <v>246</v>
       </c>
     </row>
-    <row r="162" spans="1:9" ht="45.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="162" spans="1:9" ht="45.75" customHeight="1">
       <c r="A162" s="63" t="s">
         <v>249</v>
       </c>
@@ -7447,7 +7469,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="163" spans="1:9" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="163" spans="1:9" ht="30.75" customHeight="1">
       <c r="A163" s="64" t="s">
         <v>251</v>
       </c>
@@ -7476,7 +7498,7 @@
         <v>251</v>
       </c>
     </row>
-    <row r="164" spans="1:9" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="164" spans="1:9" ht="13.5" customHeight="1">
       <c r="A164" s="63" t="s">
         <v>253</v>
       </c>
@@ -7505,7 +7527,7 @@
         <v>255</v>
       </c>
     </row>
-    <row r="165" spans="1:9" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="165" spans="1:9" ht="13.5" customHeight="1">
       <c r="A165" s="63" t="s">
         <v>256</v>
       </c>
@@ -7534,7 +7556,7 @@
         <v>256</v>
       </c>
     </row>
-    <row r="166" spans="1:9" ht="45.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="166" spans="1:9" ht="45.75" customHeight="1">
       <c r="A166" s="42" t="s">
         <v>258</v>
       </c>
@@ -7563,7 +7585,7 @@
         <v>260</v>
       </c>
     </row>
-    <row r="167" spans="1:9" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="167" spans="1:9" ht="30.75" customHeight="1">
       <c r="A167" s="12" t="s">
         <v>260</v>
       </c>
@@ -7592,7 +7614,7 @@
         <v>258</v>
       </c>
     </row>
-    <row r="168" spans="1:9" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="168" spans="1:9" ht="30.75" customHeight="1">
       <c r="A168" s="12" t="s">
         <v>262</v>
       </c>
@@ -7621,7 +7643,7 @@
         <v>262</v>
       </c>
     </row>
-    <row r="169" spans="1:9" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="169" spans="1:9" ht="13.5" customHeight="1">
       <c r="A169" s="12" t="s">
         <v>264</v>
       </c>
@@ -7650,7 +7672,7 @@
         <v>264</v>
       </c>
     </row>
-    <row r="170" spans="1:9" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="170" spans="1:9" ht="13.5" customHeight="1">
       <c r="A170" s="28" t="s">
         <v>266</v>
       </c>
@@ -7679,7 +7701,7 @@
         <v>268</v>
       </c>
     </row>
-    <row r="171" spans="1:9" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="171" spans="1:9" ht="13.5" customHeight="1">
       <c r="A171" s="28" t="s">
         <v>269</v>
       </c>
@@ -7708,7 +7730,7 @@
         <v>271</v>
       </c>
     </row>
-    <row r="172" spans="1:9" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="172" spans="1:9" ht="13.5" customHeight="1">
       <c r="A172" s="12" t="s">
         <v>272</v>
       </c>
@@ -7737,7 +7759,7 @@
         <v>274</v>
       </c>
     </row>
-    <row r="173" spans="1:9" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="173" spans="1:9" ht="13.5" customHeight="1">
       <c r="A173" s="12" t="s">
         <v>274</v>
       </c>
@@ -7766,7 +7788,7 @@
         <v>272</v>
       </c>
     </row>
-    <row r="174" spans="1:9" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="174" spans="1:9" ht="13.5" customHeight="1">
       <c r="A174" s="12" t="s">
         <v>276</v>
       </c>
@@ -7795,7 +7817,7 @@
         <v>276</v>
       </c>
     </row>
-    <row r="175" spans="1:9" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="175" spans="1:9" ht="13.5" customHeight="1">
       <c r="A175" s="12" t="s">
         <v>277</v>
       </c>
@@ -7824,7 +7846,7 @@
         <v>277</v>
       </c>
     </row>
-    <row r="176" spans="1:9" ht="45.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="176" spans="1:9" ht="45.75" customHeight="1">
       <c r="A176" s="17" t="s">
         <v>278</v>
       </c>
@@ -7853,7 +7875,7 @@
         <v>280</v>
       </c>
     </row>
-    <row r="177" spans="1:9" ht="26.65" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="177" spans="1:9" ht="26.65" customHeight="1">
       <c r="A177" s="12" t="s">
         <v>280</v>
       </c>
@@ -7882,7 +7904,7 @@
         <v>278</v>
       </c>
     </row>
-    <row r="178" spans="1:9" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="178" spans="1:9" ht="13.5" customHeight="1">
       <c r="A178" s="12" t="s">
         <v>282</v>
       </c>
@@ -7911,7 +7933,7 @@
         <v>282</v>
       </c>
     </row>
-    <row r="179" spans="1:9" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="179" spans="1:9" ht="13.5" customHeight="1">
       <c r="A179" s="12" t="s">
         <v>284</v>
       </c>
@@ -7940,7 +7962,7 @@
         <v>284</v>
       </c>
     </row>
-    <row r="180" spans="1:9" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="180" spans="1:9" ht="30.75" customHeight="1">
       <c r="A180" s="12" t="s">
         <v>286</v>
       </c>
@@ -7969,7 +7991,7 @@
         <v>286</v>
       </c>
     </row>
-    <row r="181" spans="1:9" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="181" spans="1:9" ht="30.75" customHeight="1">
       <c r="A181" s="12" t="s">
         <v>288</v>
       </c>
@@ -7998,7 +8020,7 @@
         <v>288</v>
       </c>
     </row>
-    <row r="182" spans="1:9" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="182" spans="1:9" ht="30.75" customHeight="1">
       <c r="A182" s="12" t="s">
         <v>290</v>
       </c>
@@ -8027,7 +8049,7 @@
         <v>290</v>
       </c>
     </row>
-    <row r="183" spans="1:9" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="183" spans="1:9" ht="30.75" customHeight="1">
       <c r="A183" s="12" t="s">
         <v>292</v>
       </c>
@@ -8056,7 +8078,7 @@
         <v>292</v>
       </c>
     </row>
-    <row r="184" spans="1:9" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="184" spans="1:9" ht="13.5" customHeight="1">
       <c r="A184" s="12" t="s">
         <v>294</v>
       </c>
@@ -8085,7 +8107,7 @@
         <v>294</v>
       </c>
     </row>
-    <row r="185" spans="1:9" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="185" spans="1:9" ht="13.5" customHeight="1">
       <c r="A185" s="12" t="s">
         <v>296</v>
       </c>
@@ -8114,7 +8136,7 @@
         <v>296</v>
       </c>
     </row>
-    <row r="186" spans="1:9" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="186" spans="1:9" ht="30.75" customHeight="1">
       <c r="A186" s="12" t="s">
         <v>298</v>
       </c>
@@ -8143,7 +8165,7 @@
         <v>298</v>
       </c>
     </row>
-    <row r="187" spans="1:9" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="187" spans="1:9" ht="30.75" customHeight="1">
       <c r="A187" s="12" t="s">
         <v>300</v>
       </c>
@@ -8172,7 +8194,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="188" spans="1:9" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="188" spans="1:9" ht="30.75" customHeight="1">
       <c r="A188" s="12" t="s">
         <v>301</v>
       </c>
@@ -8201,7 +8223,7 @@
         <v>301</v>
       </c>
     </row>
-    <row r="189" spans="1:9" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="189" spans="1:9" ht="13.5" customHeight="1">
       <c r="A189" s="59" t="s">
         <v>303</v>
       </c>
@@ -8214,7 +8236,7 @@
       <c r="H189" s="10"/>
       <c r="I189" s="69"/>
     </row>
-    <row r="190" spans="1:9" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="190" spans="1:9" ht="13.5" customHeight="1">
       <c r="A190" s="61" t="s">
         <v>246</v>
       </c>
@@ -8243,7 +8265,7 @@
         <v>246</v>
       </c>
     </row>
-    <row r="191" spans="1:9" ht="45.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="191" spans="1:9" ht="45.75" customHeight="1">
       <c r="A191" s="63" t="s">
         <v>249</v>
       </c>
@@ -8272,7 +8294,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="192" spans="1:9" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="192" spans="1:9" ht="30.75" customHeight="1">
       <c r="A192" s="64" t="s">
         <v>251</v>
       </c>
@@ -8301,7 +8323,7 @@
         <v>251</v>
       </c>
     </row>
-    <row r="193" spans="1:9" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="193" spans="1:9" ht="13.5" customHeight="1">
       <c r="A193" s="63" t="s">
         <v>253</v>
       </c>
@@ -8330,7 +8352,7 @@
         <v>255</v>
       </c>
     </row>
-    <row r="194" spans="1:9" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="194" spans="1:9" ht="13.5" customHeight="1">
       <c r="A194" s="63" t="s">
         <v>256</v>
       </c>
@@ -8359,7 +8381,7 @@
         <v>256</v>
       </c>
     </row>
-    <row r="195" spans="1:9" ht="45.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="195" spans="1:9" ht="45.75" customHeight="1">
       <c r="A195" s="42" t="s">
         <v>258</v>
       </c>
@@ -8388,7 +8410,7 @@
         <v>260</v>
       </c>
     </row>
-    <row r="196" spans="1:9" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="196" spans="1:9" ht="30.75" customHeight="1">
       <c r="A196" s="12" t="s">
         <v>260</v>
       </c>
@@ -8417,7 +8439,7 @@
         <v>258</v>
       </c>
     </row>
-    <row r="197" spans="1:9" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="197" spans="1:9" ht="30.75" customHeight="1">
       <c r="A197" s="12" t="s">
         <v>262</v>
       </c>
@@ -8446,7 +8468,7 @@
         <v>262</v>
       </c>
     </row>
-    <row r="198" spans="1:9" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="198" spans="1:9" ht="13.5" customHeight="1">
       <c r="A198" s="12" t="s">
         <v>264</v>
       </c>
@@ -8475,7 +8497,7 @@
         <v>264</v>
       </c>
     </row>
-    <row r="199" spans="1:9" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="199" spans="1:9" ht="13.5" customHeight="1">
       <c r="A199" s="28" t="s">
         <v>312</v>
       </c>
@@ -8504,7 +8526,7 @@
         <v>268</v>
       </c>
     </row>
-    <row r="200" spans="1:9" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="200" spans="1:9" ht="13.5" customHeight="1">
       <c r="A200" s="28" t="s">
         <v>271</v>
       </c>
@@ -8533,7 +8555,7 @@
         <v>271</v>
       </c>
     </row>
-    <row r="201" spans="1:9" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="201" spans="1:9" ht="13.5" customHeight="1">
       <c r="A201" s="28" t="s">
         <v>272</v>
       </c>
@@ -8562,7 +8584,7 @@
         <v>274</v>
       </c>
     </row>
-    <row r="202" spans="1:9" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="202" spans="1:9" ht="13.5" customHeight="1">
       <c r="A202" s="12" t="s">
         <v>274</v>
       </c>
@@ -8591,7 +8613,7 @@
         <v>272</v>
       </c>
     </row>
-    <row r="203" spans="1:9" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="203" spans="1:9" ht="13.5" customHeight="1">
       <c r="A203" s="12" t="s">
         <v>276</v>
       </c>
@@ -8620,7 +8642,7 @@
         <v>276</v>
       </c>
     </row>
-    <row r="204" spans="1:9" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="204" spans="1:9" ht="13.5" customHeight="1">
       <c r="A204" s="12" t="s">
         <v>277</v>
       </c>
@@ -8649,7 +8671,7 @@
         <v>277</v>
       </c>
     </row>
-    <row r="205" spans="1:9" ht="45.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="205" spans="1:9" ht="45.75" customHeight="1">
       <c r="A205" s="17" t="s">
         <v>278</v>
       </c>
@@ -8678,7 +8700,7 @@
         <v>280</v>
       </c>
     </row>
-    <row r="206" spans="1:9" ht="26.65" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="206" spans="1:9" ht="26.65" customHeight="1">
       <c r="A206" s="12" t="s">
         <v>280</v>
       </c>
@@ -8707,7 +8729,7 @@
         <v>278</v>
       </c>
     </row>
-    <row r="207" spans="1:9" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="207" spans="1:9" ht="13.5" customHeight="1">
       <c r="A207" s="12" t="s">
         <v>282</v>
       </c>
@@ -8736,7 +8758,7 @@
         <v>282</v>
       </c>
     </row>
-    <row r="208" spans="1:9" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="208" spans="1:9" ht="13.5" customHeight="1">
       <c r="A208" s="12" t="s">
         <v>284</v>
       </c>
@@ -8765,7 +8787,7 @@
         <v>284</v>
       </c>
     </row>
-    <row r="209" spans="1:9" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="209" spans="1:9" ht="30.75" customHeight="1">
       <c r="A209" s="12" t="s">
         <v>286</v>
       </c>
@@ -8794,7 +8816,7 @@
         <v>286</v>
       </c>
     </row>
-    <row r="210" spans="1:9" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="210" spans="1:9" ht="30.75" customHeight="1">
       <c r="A210" s="12" t="s">
         <v>288</v>
       </c>
@@ -8823,7 +8845,7 @@
         <v>288</v>
       </c>
     </row>
-    <row r="211" spans="1:9" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="211" spans="1:9" ht="30.75" customHeight="1">
       <c r="A211" s="12" t="s">
         <v>290</v>
       </c>
@@ -8852,7 +8874,7 @@
         <v>290</v>
       </c>
     </row>
-    <row r="212" spans="1:9" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="212" spans="1:9" ht="30.75" customHeight="1">
       <c r="A212" s="12" t="s">
         <v>292</v>
       </c>
@@ -8881,7 +8903,7 @@
         <v>292</v>
       </c>
     </row>
-    <row r="213" spans="1:9" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="213" spans="1:9" ht="13.5" customHeight="1">
       <c r="A213" s="12" t="s">
         <v>294</v>
       </c>
@@ -8910,7 +8932,7 @@
         <v>294</v>
       </c>
     </row>
-    <row r="214" spans="1:9" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="214" spans="1:9" ht="13.5" customHeight="1">
       <c r="A214" s="12" t="s">
         <v>296</v>
       </c>
@@ -8939,7 +8961,7 @@
         <v>296</v>
       </c>
     </row>
-    <row r="215" spans="1:9" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="215" spans="1:9" ht="30.75" customHeight="1">
       <c r="A215" s="12" t="s">
         <v>298</v>
       </c>
@@ -8968,7 +8990,7 @@
         <v>298</v>
       </c>
     </row>
-    <row r="216" spans="1:9" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="216" spans="1:9" ht="30.75" customHeight="1">
       <c r="A216" s="12" t="s">
         <v>300</v>
       </c>
@@ -8997,7 +9019,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="217" spans="1:9" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="217" spans="1:9" ht="30.75" customHeight="1">
       <c r="A217" s="12" t="s">
         <v>301</v>
       </c>
@@ -9026,7 +9048,7 @@
         <v>301</v>
       </c>
     </row>
-    <row r="218" spans="1:9" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="218" spans="1:9" ht="29.25" customHeight="1">
       <c r="A218" s="71" t="s">
         <v>328</v>
       </c>
@@ -9039,7 +9061,7 @@
       <c r="H218" s="10"/>
       <c r="I218" s="11"/>
     </row>
-    <row r="219" spans="1:9" ht="30.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="219" spans="1:9" ht="30.95" customHeight="1">
       <c r="A219" s="17" t="s">
         <v>329</v>
       </c>
@@ -9068,7 +9090,7 @@
         <v>329</v>
       </c>
     </row>
-    <row r="220" spans="1:9" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="220" spans="1:9" ht="29.25" customHeight="1">
       <c r="A220" s="71" t="s">
         <v>328</v>
       </c>
@@ -9081,7 +9103,7 @@
       <c r="H220" s="45"/>
       <c r="I220" s="74"/>
     </row>
-    <row r="221" spans="1:9" ht="30.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="221" spans="1:9" ht="30.95" customHeight="1">
       <c r="A221" s="17" t="s">
         <v>329</v>
       </c>
@@ -9110,7 +9132,7 @@
         <v>329</v>
       </c>
     </row>
-    <row r="222" spans="1:9" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="222" spans="1:9" ht="14.45" customHeight="1">
       <c r="A222" s="55" t="s">
         <v>331</v>
       </c>
@@ -9123,7 +9145,7 @@
       <c r="H222" s="10"/>
       <c r="I222" s="10"/>
     </row>
-    <row r="223" spans="1:9" ht="13.7" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="223" spans="1:9" ht="13.7" customHeight="1">
       <c r="A223" s="12" t="s">
         <v>332</v>
       </c>
@@ -9152,7 +9174,7 @@
         <v>337</v>
       </c>
     </row>
-    <row r="224" spans="1:9" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="224" spans="1:9" ht="24" customHeight="1">
       <c r="A224" s="76" t="s">
         <v>338</v>
       </c>
@@ -9165,7 +9187,7 @@
       <c r="H224" s="10"/>
       <c r="I224" s="10"/>
     </row>
-    <row r="225" spans="1:9" ht="24.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="225" spans="1:9" ht="24.6" customHeight="1">
       <c r="A225" s="12" t="s">
         <v>339</v>
       </c>
@@ -9194,7 +9216,7 @@
         <v>339</v>
       </c>
     </row>
-    <row r="226" spans="1:9" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="226" spans="1:9" ht="13.5" customHeight="1">
       <c r="A226" s="55" t="s">
         <v>342</v>
       </c>
@@ -9207,7 +9229,7 @@
       <c r="H226" s="10"/>
       <c r="I226" s="10"/>
     </row>
-    <row r="227" spans="1:9" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="227" spans="1:9" ht="17.100000000000001" customHeight="1">
       <c r="A227" s="17" t="s">
         <v>10</v>
       </c>
@@ -9234,7 +9256,7 @@
       </c>
       <c r="I227" s="10"/>
     </row>
-    <row r="228" spans="1:9" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="228" spans="1:9" ht="17.100000000000001" customHeight="1">
       <c r="A228" s="17" t="s">
         <v>17</v>
       </c>
@@ -9261,7 +9283,7 @@
       </c>
       <c r="I228" s="10"/>
     </row>
-    <row r="229" spans="1:9" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="229" spans="1:9" ht="17.100000000000001" customHeight="1">
       <c r="A229" s="12" t="s">
         <v>345</v>
       </c>
@@ -9288,7 +9310,7 @@
       </c>
       <c r="I229" s="10"/>
     </row>
-    <row r="230" spans="1:9" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="230" spans="1:9" ht="17.100000000000001" customHeight="1">
       <c r="A230" s="12" t="s">
         <v>347</v>
       </c>
@@ -9315,7 +9337,7 @@
       </c>
       <c r="I230" s="10"/>
     </row>
-    <row r="231" spans="1:9" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="231" spans="1:9" ht="17.100000000000001" customHeight="1">
       <c r="A231" s="12" t="s">
         <v>349</v>
       </c>
@@ -9342,7 +9364,7 @@
       </c>
       <c r="I231" s="10"/>
     </row>
-    <row r="232" spans="1:9" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="232" spans="1:9" ht="17.100000000000001" customHeight="1">
       <c r="A232" s="12" t="s">
         <v>351</v>
       </c>
@@ -9369,7 +9391,7 @@
       </c>
       <c r="I232" s="10"/>
     </row>
-    <row r="233" spans="1:9" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="233" spans="1:9" ht="17.100000000000001" customHeight="1">
       <c r="A233" s="12" t="s">
         <v>352</v>
       </c>
@@ -9396,7 +9418,7 @@
       </c>
       <c r="I233" s="10"/>
     </row>
-    <row r="234" spans="1:9" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="234" spans="1:9" ht="17.100000000000001" customHeight="1">
       <c r="A234" s="77" t="s">
         <v>354</v>
       </c>
@@ -9423,7 +9445,7 @@
       </c>
       <c r="I234" s="10"/>
     </row>
-    <row r="235" spans="1:9" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="235" spans="1:9" ht="17.100000000000001" customHeight="1">
       <c r="A235" s="77" t="s">
         <v>356</v>
       </c>
@@ -9450,7 +9472,7 @@
       </c>
       <c r="I235" s="10"/>
     </row>
-    <row r="236" spans="1:9" ht="45.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="236" spans="1:9" ht="45.75" customHeight="1">
       <c r="A236" s="12" t="s">
         <v>358</v>
       </c>
@@ -9477,7 +9499,7 @@
       </c>
       <c r="I236" s="21"/>
     </row>
-    <row r="237" spans="1:9" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="237" spans="1:9" ht="30.75" customHeight="1">
       <c r="A237" s="77" t="s">
         <v>360</v>
       </c>
@@ -9504,29 +9526,51 @@
       </c>
       <c r="I237" s="21"/>
     </row>
-    <row r="238" spans="1:9" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A238" s="11"/>
-      <c r="B238" s="10"/>
-      <c r="C238" s="10"/>
-      <c r="D238" s="10"/>
-      <c r="E238" s="10"/>
-      <c r="F238" s="10"/>
-      <c r="G238" s="10"/>
-      <c r="H238" s="11"/>
-      <c r="I238" s="10"/>
-    </row>
-    <row r="239" spans="1:9" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A239" s="10"/>
-      <c r="B239" s="10"/>
-      <c r="C239" s="10"/>
-      <c r="D239" s="10"/>
-      <c r="E239" s="10"/>
-      <c r="F239" s="10"/>
-      <c r="G239" s="10"/>
-      <c r="H239" s="10"/>
-      <c r="I239" s="10"/>
-    </row>
-    <row r="240" spans="1:9" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="238" spans="1:9" ht="13.5" customHeight="1">
+      <c r="A238" t="s">
+        <v>365</v>
+      </c>
+      <c r="B238"/>
+      <c r="C238" t="s">
+        <v>12</v>
+      </c>
+      <c r="D238" t="s">
+        <v>20</v>
+      </c>
+      <c r="E238"/>
+      <c r="F238" s="81" t="s">
+        <v>21</v>
+      </c>
+      <c r="G238" s="82" t="s">
+        <v>16</v>
+      </c>
+      <c r="H238" t="s">
+        <v>365</v>
+      </c>
+    </row>
+    <row r="239" spans="1:9" ht="13.5" customHeight="1">
+      <c r="A239" t="s">
+        <v>366</v>
+      </c>
+      <c r="B239"/>
+      <c r="C239" t="s">
+        <v>12</v>
+      </c>
+      <c r="D239" t="s">
+        <v>20</v>
+      </c>
+      <c r="E239"/>
+      <c r="F239" s="81" t="s">
+        <v>21</v>
+      </c>
+      <c r="G239" s="82" t="s">
+        <v>16</v>
+      </c>
+      <c r="H239" t="s">
+        <v>366</v>
+      </c>
+    </row>
+    <row r="240" spans="1:9" ht="13.5" customHeight="1">
       <c r="A240" s="10"/>
       <c r="B240" s="10"/>
       <c r="C240" s="10"/>
@@ -9537,7 +9581,7 @@
       <c r="H240" s="10"/>
       <c r="I240" s="10"/>
     </row>
-    <row r="241" spans="1:9" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="241" spans="1:9" ht="13.5" customHeight="1">
       <c r="A241" s="10"/>
       <c r="B241" s="10"/>
       <c r="C241" s="10"/>
@@ -9548,7 +9592,7 @@
       <c r="H241" s="10"/>
       <c r="I241" s="10"/>
     </row>
-    <row r="242" spans="1:9" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="242" spans="1:9" ht="13.5" customHeight="1">
       <c r="A242" s="10"/>
       <c r="B242" s="10"/>
       <c r="C242" s="10"/>
@@ -9559,7 +9603,7 @@
       <c r="H242" s="10"/>
       <c r="I242" s="10"/>
     </row>
-    <row r="243" spans="1:9" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="243" spans="1:9" ht="13.5" customHeight="1">
       <c r="A243" s="10"/>
       <c r="B243" s="10"/>
       <c r="C243" s="10"/>
@@ -9570,7 +9614,7 @@
       <c r="H243" s="10"/>
       <c r="I243" s="10"/>
     </row>
-    <row r="244" spans="1:9" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="244" spans="1:9" ht="13.5" customHeight="1">
       <c r="A244" s="10"/>
       <c r="B244" s="10"/>
       <c r="C244" s="10"/>
@@ -9581,7 +9625,7 @@
       <c r="H244" s="10"/>
       <c r="I244" s="10"/>
     </row>
-    <row r="245" spans="1:9" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="245" spans="1:9" ht="13.5" customHeight="1">
       <c r="A245" s="10"/>
       <c r="B245" s="10"/>
       <c r="C245" s="10"/>
@@ -9592,7 +9636,7 @@
       <c r="H245" s="10"/>
       <c r="I245" s="10"/>
     </row>
-    <row r="246" spans="1:9" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="246" spans="1:9" ht="13.5" customHeight="1">
       <c r="A246" s="10"/>
       <c r="B246" s="10"/>
       <c r="C246" s="10"/>
@@ -9603,7 +9647,7 @@
       <c r="H246" s="10"/>
       <c r="I246" s="10"/>
     </row>
-    <row r="247" spans="1:9" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="247" spans="1:9" ht="13.5" customHeight="1">
       <c r="A247" s="10"/>
       <c r="B247" s="10"/>
       <c r="C247" s="10"/>
@@ -9614,7 +9658,7 @@
       <c r="H247" s="10"/>
       <c r="I247" s="10"/>
     </row>
-    <row r="248" spans="1:9" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="248" spans="1:9" ht="13.5" customHeight="1">
       <c r="A248" s="10"/>
       <c r="B248" s="10"/>
       <c r="C248" s="10"/>
@@ -9625,7 +9669,7 @@
       <c r="H248" s="10"/>
       <c r="I248" s="10"/>
     </row>
-    <row r="249" spans="1:9" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="249" spans="1:9" ht="13.5" customHeight="1">
       <c r="A249" s="10"/>
       <c r="B249" s="10"/>
       <c r="C249" s="10"/>
@@ -9636,7 +9680,7 @@
       <c r="H249" s="10"/>
       <c r="I249" s="10"/>
     </row>
-    <row r="250" spans="1:9" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="250" spans="1:9" ht="13.5" customHeight="1">
       <c r="A250" s="10"/>
       <c r="B250" s="10"/>
       <c r="C250" s="10"/>
@@ -9647,7 +9691,7 @@
       <c r="H250" s="10"/>
       <c r="I250" s="10"/>
     </row>
-    <row r="251" spans="1:9" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="251" spans="1:9" ht="13.5" customHeight="1">
       <c r="A251" s="10"/>
       <c r="B251" s="10"/>
       <c r="C251" s="10"/>
@@ -9658,7 +9702,7 @@
       <c r="H251" s="10"/>
       <c r="I251" s="10"/>
     </row>
-    <row r="252" spans="1:9" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="252" spans="1:9" ht="13.5" customHeight="1">
       <c r="A252" s="78"/>
       <c r="B252" s="10"/>
       <c r="C252" s="10"/>
@@ -9669,7 +9713,7 @@
       <c r="H252" s="10"/>
       <c r="I252" s="10"/>
     </row>
-    <row r="253" spans="1:9" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="253" spans="1:9" ht="13.5" customHeight="1">
       <c r="A253" s="79"/>
       <c r="B253" s="21"/>
       <c r="C253" s="10"/>
@@ -9696,7 +9740,7 @@
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" customHeight="1"/>
   <cols>
     <col min="1" max="2" width="8.85546875" style="1" customWidth="1"/>
     <col min="3" max="3" width="35.42578125" style="1" customWidth="1"/>
@@ -9706,7 +9750,7 @@
     <col min="8" max="16384" width="8.85546875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" ht="13.5" customHeight="1">
       <c r="A1" s="10"/>
       <c r="B1" s="10"/>
       <c r="C1" s="10"/>
@@ -9714,7 +9758,7 @@
       <c r="E1" s="10"/>
       <c r="F1" s="10"/>
     </row>
-    <row r="2" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" ht="13.5" customHeight="1">
       <c r="A2" s="10"/>
       <c r="B2" s="10"/>
       <c r="C2" s="10"/>
@@ -9722,7 +9766,7 @@
       <c r="E2" s="10"/>
       <c r="F2" s="78"/>
     </row>
-    <row r="3" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" ht="13.5" customHeight="1">
       <c r="A3" s="10"/>
       <c r="B3" s="10"/>
       <c r="C3" s="10"/>
@@ -9730,7 +9774,7 @@
       <c r="E3" s="80"/>
       <c r="F3" s="79"/>
     </row>
-    <row r="4" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" ht="13.5" customHeight="1">
       <c r="A4" s="10"/>
       <c r="B4" s="10"/>
       <c r="C4" s="10"/>
@@ -9738,7 +9782,7 @@
       <c r="E4" s="80"/>
       <c r="F4" s="79"/>
     </row>
-    <row r="5" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6" ht="13.5" customHeight="1">
       <c r="A5" s="10"/>
       <c r="B5" s="10"/>
       <c r="C5" s="10"/>
@@ -9746,7 +9790,7 @@
       <c r="E5" s="80"/>
       <c r="F5" s="79"/>
     </row>
-    <row r="6" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6" ht="13.5" customHeight="1">
       <c r="A6" s="10"/>
       <c r="B6" s="10"/>
       <c r="C6" s="78"/>
@@ -9754,7 +9798,7 @@
       <c r="E6" s="80"/>
       <c r="F6" s="79"/>
     </row>
-    <row r="7" spans="1:6" ht="137.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:6" ht="137.25" customHeight="1">
       <c r="A7" s="10"/>
       <c r="B7" s="80"/>
       <c r="C7" s="12" t="s">
@@ -9764,7 +9808,7 @@
       <c r="E7" s="80"/>
       <c r="F7" s="79"/>
     </row>
-    <row r="8" spans="1:6" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:6" ht="30.75" customHeight="1">
       <c r="A8" s="10"/>
       <c r="B8" s="80"/>
       <c r="C8" s="79"/>
@@ -9774,7 +9818,7 @@
         <v>281</v>
       </c>
     </row>
-    <row r="9" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:6" ht="13.5" customHeight="1">
       <c r="A9" s="10"/>
       <c r="B9" s="80"/>
       <c r="C9" s="79"/>
@@ -9782,7 +9826,7 @@
       <c r="E9" s="80"/>
       <c r="F9" s="79"/>
     </row>
-    <row r="10" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:6" ht="13.5" customHeight="1">
       <c r="A10" s="10"/>
       <c r="B10" s="80"/>
       <c r="C10" s="79"/>
@@ -9790,7 +9834,7 @@
       <c r="E10" s="80"/>
       <c r="F10" s="79"/>
     </row>
-    <row r="11" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:6" ht="13.5" customHeight="1">
       <c r="A11" s="10"/>
       <c r="B11" s="80"/>
       <c r="C11" s="79"/>
@@ -9798,7 +9842,7 @@
       <c r="E11" s="80"/>
       <c r="F11" s="79"/>
     </row>
-    <row r="12" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:6" ht="13.5" customHeight="1">
       <c r="A12" s="10"/>
       <c r="B12" s="80"/>
       <c r="C12" s="79"/>
@@ -9806,7 +9850,7 @@
       <c r="E12" s="80"/>
       <c r="F12" s="79"/>
     </row>
-    <row r="13" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:6" ht="13.5" customHeight="1">
       <c r="A13" s="10"/>
       <c r="B13" s="80"/>
       <c r="C13" s="79"/>
@@ -9814,7 +9858,7 @@
       <c r="E13" s="80"/>
       <c r="F13" s="79"/>
     </row>
-    <row r="14" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:6" ht="13.5" customHeight="1">
       <c r="A14" s="10"/>
       <c r="B14" s="80"/>
       <c r="C14" s="79"/>
@@ -9822,7 +9866,7 @@
       <c r="E14" s="80"/>
       <c r="F14" s="79"/>
     </row>
-    <row r="15" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:6" ht="13.5" customHeight="1">
       <c r="A15" s="10"/>
       <c r="B15" s="80"/>
       <c r="C15" s="79"/>
@@ -9830,7 +9874,7 @@
       <c r="E15" s="80"/>
       <c r="F15" s="79"/>
     </row>
-    <row r="16" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:6" ht="13.5" customHeight="1">
       <c r="A16" s="10"/>
       <c r="B16" s="80"/>
       <c r="C16" s="79"/>
@@ -9840,7 +9884,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="17" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:6" ht="13.5" customHeight="1">
       <c r="A17" s="10"/>
       <c r="B17" s="80"/>
       <c r="C17" s="79"/>

--- a/Config Files/AOC-4_NBFC_nodes_seperated_config_new.xlsx
+++ b/Config Files/AOC-4_NBFC_nodes_seperated_config_new.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26924"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27029"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\MCA Portal\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mns-admin\Documents\Python\Config\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{20AAFC30-F3C3-446F-8683-C83A47C33FB0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1F4AD9EF-305E-4810-BDFD-973DB20F92C6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -17,14 +17,14 @@
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$I$237</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$I$239</definedName>
   </definedNames>
   <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1993" uniqueCount="367">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1981" uniqueCount="366">
   <si>
     <t>Field_Name</t>
   </si>
@@ -294,9 +294,6 @@
   </si>
   <si>
     <t>liabilities</t>
-  </si>
-  <si>
-    <t>total_liabilities</t>
   </si>
   <si>
     <t>TOT_LIAB_EQT_CR</t>
@@ -639,9 +636,6 @@
     <t>total_non_financial_liabilities</t>
   </si>
   <si>
-    <t>current_tax_liabilities_net+deferred_tax_liabilites_net+other_non_financial_liabilities</t>
-  </si>
-  <si>
     <t>total_financial_assets</t>
   </si>
   <si>
@@ -1126,6 +1120,9 @@
   </si>
   <si>
     <t>disclosures_director_report</t>
+  </si>
+  <si>
+    <t>current_tax_liabilities_net+deferred_tax_liabilites_net+other_non_financial_liabilities+provisions</t>
   </si>
 </sst>
 </file>
@@ -2944,8 +2941,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:I253"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A219" workbookViewId="0">
-      <selection activeCell="E240" sqref="E240"/>
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+      <selection activeCell="K123" sqref="K123"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" customHeight="1"/>
@@ -3073,7 +3070,7 @@
         <v>20</v>
       </c>
       <c r="E5" s="18" t="s">
-        <v>363</v>
+        <v>361</v>
       </c>
       <c r="F5" s="19" t="s">
         <v>21</v>
@@ -3100,7 +3097,7 @@
         <v>20</v>
       </c>
       <c r="E6" s="22" t="s">
-        <v>364</v>
+        <v>362</v>
       </c>
       <c r="F6" s="23" t="s">
         <v>21</v>
@@ -3194,7 +3191,7 @@
         <v>20</v>
       </c>
       <c r="E10" s="18" t="s">
-        <v>363</v>
+        <v>361</v>
       </c>
       <c r="F10" s="19" t="s">
         <v>21</v>
@@ -3221,7 +3218,7 @@
         <v>20</v>
       </c>
       <c r="E11" s="22" t="s">
-        <v>364</v>
+        <v>362</v>
       </c>
       <c r="F11" s="23" t="s">
         <v>21</v>
@@ -4435,7 +4432,7 @@
     </row>
     <row r="55" spans="1:9" ht="17.100000000000001" customHeight="1">
       <c r="A55" s="12" t="s">
-        <v>90</v>
+        <v>158</v>
       </c>
       <c r="B55" s="13" t="s">
         <v>11</v>
@@ -4447,24 +4444,24 @@
         <v>13</v>
       </c>
       <c r="E55" s="14" t="s">
+        <v>90</v>
+      </c>
+      <c r="F55" s="14" t="s">
+        <v>15</v>
+      </c>
+      <c r="G55" s="15" t="s">
+        <v>16</v>
+      </c>
+      <c r="H55" s="15" t="s">
         <v>91</v>
       </c>
-      <c r="F55" s="14" t="s">
-        <v>15</v>
-      </c>
-      <c r="G55" s="15" t="s">
-        <v>16</v>
-      </c>
-      <c r="H55" s="15" t="s">
-        <v>92</v>
-      </c>
       <c r="I55" s="33" t="s">
-        <v>90</v>
+        <v>158</v>
       </c>
     </row>
     <row r="56" spans="1:9" ht="17.100000000000001" customHeight="1">
       <c r="A56" s="12" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="B56" s="13" t="s">
         <v>11</v>
@@ -4476,7 +4473,7 @@
         <v>13</v>
       </c>
       <c r="E56" s="14" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="F56" s="14" t="s">
         <v>15</v>
@@ -4485,15 +4482,15 @@
         <v>16</v>
       </c>
       <c r="H56" s="15" t="s">
+        <v>91</v>
+      </c>
+      <c r="I56" s="33" t="s">
         <v>92</v>
-      </c>
-      <c r="I56" s="33" t="s">
-        <v>93</v>
       </c>
     </row>
     <row r="57" spans="1:9" ht="17.100000000000001" customHeight="1">
       <c r="A57" s="12" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="B57" s="13" t="s">
         <v>11</v>
@@ -4505,7 +4502,7 @@
         <v>13</v>
       </c>
       <c r="E57" s="14" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="F57" s="14" t="s">
         <v>15</v>
@@ -4514,15 +4511,15 @@
         <v>16</v>
       </c>
       <c r="H57" s="15" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="I57" s="33" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
     </row>
     <row r="58" spans="1:9" ht="17.100000000000001" customHeight="1">
       <c r="A58" s="12" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="B58" s="13" t="s">
         <v>11</v>
@@ -4534,7 +4531,7 @@
         <v>13</v>
       </c>
       <c r="E58" s="14" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="F58" s="14" t="s">
         <v>15</v>
@@ -4543,15 +4540,15 @@
         <v>16</v>
       </c>
       <c r="H58" s="15" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="I58" s="33" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
     </row>
     <row r="59" spans="1:9" ht="17.100000000000001" customHeight="1">
       <c r="A59" s="12" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="B59" s="13" t="s">
         <v>11</v>
@@ -4563,7 +4560,7 @@
         <v>13</v>
       </c>
       <c r="E59" s="14" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="F59" s="14" t="s">
         <v>15</v>
@@ -4572,15 +4569,15 @@
         <v>16</v>
       </c>
       <c r="H59" s="15" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="I59" s="33" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
     </row>
     <row r="60" spans="1:9" ht="17.100000000000001" customHeight="1">
       <c r="A60" s="12" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="B60" s="13" t="s">
         <v>11</v>
@@ -4592,7 +4589,7 @@
         <v>13</v>
       </c>
       <c r="E60" s="14" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="F60" s="14" t="s">
         <v>15</v>
@@ -4601,15 +4598,15 @@
         <v>16</v>
       </c>
       <c r="H60" s="15" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="I60" s="33" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
     </row>
     <row r="61" spans="1:9" ht="17.100000000000001" customHeight="1">
       <c r="A61" s="12" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="B61" s="13" t="s">
         <v>11</v>
@@ -4621,7 +4618,7 @@
         <v>13</v>
       </c>
       <c r="E61" s="14" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="F61" s="14" t="s">
         <v>15</v>
@@ -4630,15 +4627,15 @@
         <v>16</v>
       </c>
       <c r="H61" s="15" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="I61" s="33" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
     <row r="62" spans="1:9" ht="17.100000000000001" customHeight="1">
       <c r="A62" s="12" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="B62" s="13" t="s">
         <v>11</v>
@@ -4650,7 +4647,7 @@
         <v>13</v>
       </c>
       <c r="E62" s="14" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="F62" s="14" t="s">
         <v>15</v>
@@ -4659,15 +4656,15 @@
         <v>16</v>
       </c>
       <c r="H62" s="15" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="I62" s="33" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
     </row>
     <row r="63" spans="1:9" ht="17.100000000000001" customHeight="1">
       <c r="A63" s="12" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="B63" s="13" t="s">
         <v>11</v>
@@ -4679,7 +4676,7 @@
         <v>13</v>
       </c>
       <c r="E63" s="14" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="F63" s="14" t="s">
         <v>15</v>
@@ -4688,15 +4685,15 @@
         <v>16</v>
       </c>
       <c r="H63" s="15" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="I63" s="33" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
     </row>
     <row r="64" spans="1:9" ht="17.100000000000001" customHeight="1">
       <c r="A64" s="12" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="B64" s="13" t="s">
         <v>11</v>
@@ -4708,7 +4705,7 @@
         <v>13</v>
       </c>
       <c r="E64" s="14" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="F64" s="14" t="s">
         <v>15</v>
@@ -4717,15 +4714,15 @@
         <v>16</v>
       </c>
       <c r="H64" s="15" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="I64" s="33" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
     </row>
     <row r="65" spans="1:9" ht="17.100000000000001" customHeight="1">
       <c r="A65" s="12" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="B65" s="13" t="s">
         <v>11</v>
@@ -4737,7 +4734,7 @@
         <v>13</v>
       </c>
       <c r="E65" s="14" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="F65" s="14" t="s">
         <v>15</v>
@@ -4746,15 +4743,15 @@
         <v>16</v>
       </c>
       <c r="H65" s="15" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="I65" s="33" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
     </row>
     <row r="66" spans="1:9" ht="17.100000000000001" customHeight="1">
       <c r="A66" s="12" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="B66" s="13" t="s">
         <v>11</v>
@@ -4766,7 +4763,7 @@
         <v>13</v>
       </c>
       <c r="E66" s="14" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="F66" s="14" t="s">
         <v>15</v>
@@ -4775,15 +4772,15 @@
         <v>16</v>
       </c>
       <c r="H66" s="15" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="I66" s="33" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
     </row>
     <row r="67" spans="1:9" ht="17.100000000000001" customHeight="1">
       <c r="A67" s="12" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="B67" s="13" t="s">
         <v>11</v>
@@ -4795,7 +4792,7 @@
         <v>13</v>
       </c>
       <c r="E67" s="14" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="F67" s="14" t="s">
         <v>15</v>
@@ -4804,15 +4801,15 @@
         <v>16</v>
       </c>
       <c r="H67" s="15" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="I67" s="33" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
     </row>
     <row r="68" spans="1:9" ht="17.100000000000001" customHeight="1">
       <c r="A68" s="12" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="B68" s="13" t="s">
         <v>11</v>
@@ -4824,7 +4821,7 @@
         <v>13</v>
       </c>
       <c r="E68" s="14" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="F68" s="14" t="s">
         <v>15</v>
@@ -4833,15 +4830,15 @@
         <v>16</v>
       </c>
       <c r="H68" s="15" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="I68" s="33" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
     </row>
     <row r="69" spans="1:9" ht="17.100000000000001" customHeight="1">
       <c r="A69" s="12" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="B69" s="13" t="s">
         <v>11</v>
@@ -4853,7 +4850,7 @@
         <v>13</v>
       </c>
       <c r="E69" s="14" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="F69" s="14" t="s">
         <v>15</v>
@@ -4862,15 +4859,15 @@
         <v>16</v>
       </c>
       <c r="H69" s="15" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="I69" s="33" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
     </row>
     <row r="70" spans="1:9" ht="17.100000000000001" customHeight="1">
       <c r="A70" s="12" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="B70" s="13" t="s">
         <v>11</v>
@@ -4882,7 +4879,7 @@
         <v>13</v>
       </c>
       <c r="E70" s="14" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="F70" s="14" t="s">
         <v>15</v>
@@ -4891,15 +4888,15 @@
         <v>16</v>
       </c>
       <c r="H70" s="15" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="I70" s="34" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
     </row>
     <row r="71" spans="1:9" ht="13.5" customHeight="1">
       <c r="A71" s="28" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="B71" s="13" t="s">
         <v>11</v>
@@ -4911,7 +4908,7 @@
         <v>13</v>
       </c>
       <c r="E71" s="14" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="F71" s="14" t="s">
         <v>15</v>
@@ -4920,28 +4917,28 @@
         <v>16</v>
       </c>
       <c r="H71" s="31" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="I71" s="12" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
     </row>
     <row r="72" spans="1:9" ht="17.100000000000001" customHeight="1">
       <c r="A72" s="35" t="s">
+        <v>124</v>
+      </c>
+      <c r="B72" s="13" t="s">
+        <v>11</v>
+      </c>
+      <c r="C72" s="14" t="s">
+        <v>12</v>
+      </c>
+      <c r="D72" s="14" t="s">
         <v>125</v>
       </c>
-      <c r="B72" s="13" t="s">
-        <v>11</v>
-      </c>
-      <c r="C72" s="14" t="s">
-        <v>12</v>
-      </c>
-      <c r="D72" s="14" t="s">
+      <c r="E72" s="14" t="s">
         <v>126</v>
       </c>
-      <c r="E72" s="14" t="s">
-        <v>127</v>
-      </c>
       <c r="F72" s="14" t="s">
         <v>15</v>
       </c>
@@ -4949,28 +4946,28 @@
         <v>16</v>
       </c>
       <c r="H72" s="15" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="I72" s="36" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
     </row>
     <row r="73" spans="1:9" ht="17.100000000000001" customHeight="1">
       <c r="A73" s="12" t="s">
+        <v>127</v>
+      </c>
+      <c r="B73" s="13" t="s">
+        <v>11</v>
+      </c>
+      <c r="C73" s="14" t="s">
+        <v>12</v>
+      </c>
+      <c r="D73" s="14" t="s">
+        <v>125</v>
+      </c>
+      <c r="E73" s="14" t="s">
         <v>128</v>
       </c>
-      <c r="B73" s="13" t="s">
-        <v>11</v>
-      </c>
-      <c r="C73" s="14" t="s">
-        <v>12</v>
-      </c>
-      <c r="D73" s="14" t="s">
-        <v>126</v>
-      </c>
-      <c r="E73" s="14" t="s">
-        <v>129</v>
-      </c>
       <c r="F73" s="14" t="s">
         <v>15</v>
       </c>
@@ -4978,28 +4975,28 @@
         <v>16</v>
       </c>
       <c r="H73" s="15" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="I73" s="33" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
     </row>
     <row r="74" spans="1:9" ht="17.100000000000001" customHeight="1">
       <c r="A74" s="12" t="s">
+        <v>129</v>
+      </c>
+      <c r="B74" s="13" t="s">
+        <v>11</v>
+      </c>
+      <c r="C74" s="14" t="s">
+        <v>12</v>
+      </c>
+      <c r="D74" s="14" t="s">
+        <v>125</v>
+      </c>
+      <c r="E74" s="14" t="s">
         <v>130</v>
       </c>
-      <c r="B74" s="13" t="s">
-        <v>11</v>
-      </c>
-      <c r="C74" s="14" t="s">
-        <v>12</v>
-      </c>
-      <c r="D74" s="14" t="s">
-        <v>126</v>
-      </c>
-      <c r="E74" s="14" t="s">
-        <v>131</v>
-      </c>
       <c r="F74" s="14" t="s">
         <v>15</v>
       </c>
@@ -5007,28 +5004,28 @@
         <v>16</v>
       </c>
       <c r="H74" s="15" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="I74" s="33" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
     </row>
     <row r="75" spans="1:9" ht="17.100000000000001" customHeight="1">
       <c r="A75" s="12" t="s">
+        <v>131</v>
+      </c>
+      <c r="B75" s="13" t="s">
+        <v>11</v>
+      </c>
+      <c r="C75" s="14" t="s">
+        <v>12</v>
+      </c>
+      <c r="D75" s="14" t="s">
+        <v>125</v>
+      </c>
+      <c r="E75" s="14" t="s">
         <v>132</v>
       </c>
-      <c r="B75" s="13" t="s">
-        <v>11</v>
-      </c>
-      <c r="C75" s="14" t="s">
-        <v>12</v>
-      </c>
-      <c r="D75" s="14" t="s">
-        <v>126</v>
-      </c>
-      <c r="E75" s="14" t="s">
-        <v>133</v>
-      </c>
       <c r="F75" s="14" t="s">
         <v>15</v>
       </c>
@@ -5036,28 +5033,28 @@
         <v>16</v>
       </c>
       <c r="H75" s="15" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="I75" s="33" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
     </row>
     <row r="76" spans="1:9" ht="17.100000000000001" customHeight="1">
       <c r="A76" s="12" t="s">
+        <v>133</v>
+      </c>
+      <c r="B76" s="13" t="s">
+        <v>11</v>
+      </c>
+      <c r="C76" s="14" t="s">
+        <v>12</v>
+      </c>
+      <c r="D76" s="14" t="s">
+        <v>125</v>
+      </c>
+      <c r="E76" s="14" t="s">
         <v>134</v>
       </c>
-      <c r="B76" s="13" t="s">
-        <v>11</v>
-      </c>
-      <c r="C76" s="14" t="s">
-        <v>12</v>
-      </c>
-      <c r="D76" s="14" t="s">
-        <v>126</v>
-      </c>
-      <c r="E76" s="14" t="s">
-        <v>135</v>
-      </c>
       <c r="F76" s="14" t="s">
         <v>15</v>
       </c>
@@ -5065,28 +5062,28 @@
         <v>16</v>
       </c>
       <c r="H76" s="15" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="I76" s="33" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
     </row>
     <row r="77" spans="1:9" ht="17.100000000000001" customHeight="1">
       <c r="A77" s="12" t="s">
+        <v>135</v>
+      </c>
+      <c r="B77" s="13" t="s">
+        <v>11</v>
+      </c>
+      <c r="C77" s="14" t="s">
+        <v>12</v>
+      </c>
+      <c r="D77" s="14" t="s">
+        <v>125</v>
+      </c>
+      <c r="E77" s="14" t="s">
         <v>136</v>
       </c>
-      <c r="B77" s="13" t="s">
-        <v>11</v>
-      </c>
-      <c r="C77" s="14" t="s">
-        <v>12</v>
-      </c>
-      <c r="D77" s="14" t="s">
-        <v>126</v>
-      </c>
-      <c r="E77" s="14" t="s">
-        <v>137</v>
-      </c>
       <c r="F77" s="14" t="s">
         <v>15</v>
       </c>
@@ -5094,28 +5091,28 @@
         <v>16</v>
       </c>
       <c r="H77" s="15" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="I77" s="33" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
     </row>
     <row r="78" spans="1:9" ht="17.100000000000001" customHeight="1">
       <c r="A78" s="12" t="s">
+        <v>137</v>
+      </c>
+      <c r="B78" s="13" t="s">
+        <v>11</v>
+      </c>
+      <c r="C78" s="14" t="s">
+        <v>12</v>
+      </c>
+      <c r="D78" s="14" t="s">
+        <v>125</v>
+      </c>
+      <c r="E78" s="14" t="s">
         <v>138</v>
       </c>
-      <c r="B78" s="13" t="s">
-        <v>11</v>
-      </c>
-      <c r="C78" s="14" t="s">
-        <v>12</v>
-      </c>
-      <c r="D78" s="14" t="s">
-        <v>126</v>
-      </c>
-      <c r="E78" s="14" t="s">
-        <v>139</v>
-      </c>
       <c r="F78" s="14" t="s">
         <v>15</v>
       </c>
@@ -5123,28 +5120,28 @@
         <v>16</v>
       </c>
       <c r="H78" s="15" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="I78" s="33" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
     </row>
     <row r="79" spans="1:9" ht="17.100000000000001" customHeight="1">
       <c r="A79" s="12" t="s">
+        <v>139</v>
+      </c>
+      <c r="B79" s="13" t="s">
+        <v>11</v>
+      </c>
+      <c r="C79" s="14" t="s">
+        <v>12</v>
+      </c>
+      <c r="D79" s="14" t="s">
+        <v>125</v>
+      </c>
+      <c r="E79" s="14" t="s">
         <v>140</v>
       </c>
-      <c r="B79" s="13" t="s">
-        <v>11</v>
-      </c>
-      <c r="C79" s="14" t="s">
-        <v>12</v>
-      </c>
-      <c r="D79" s="14" t="s">
-        <v>126</v>
-      </c>
-      <c r="E79" s="14" t="s">
-        <v>141</v>
-      </c>
       <c r="F79" s="14" t="s">
         <v>15</v>
       </c>
@@ -5152,28 +5149,28 @@
         <v>16</v>
       </c>
       <c r="H79" s="15" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="I79" s="33" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
     </row>
     <row r="80" spans="1:9" ht="17.100000000000001" customHeight="1">
       <c r="A80" s="12" t="s">
+        <v>141</v>
+      </c>
+      <c r="B80" s="13" t="s">
+        <v>11</v>
+      </c>
+      <c r="C80" s="14" t="s">
+        <v>12</v>
+      </c>
+      <c r="D80" s="14" t="s">
+        <v>125</v>
+      </c>
+      <c r="E80" s="14" t="s">
         <v>142</v>
       </c>
-      <c r="B80" s="13" t="s">
-        <v>11</v>
-      </c>
-      <c r="C80" s="14" t="s">
-        <v>12</v>
-      </c>
-      <c r="D80" s="14" t="s">
-        <v>126</v>
-      </c>
-      <c r="E80" s="14" t="s">
-        <v>143</v>
-      </c>
       <c r="F80" s="14" t="s">
         <v>15</v>
       </c>
@@ -5181,28 +5178,28 @@
         <v>16</v>
       </c>
       <c r="H80" s="15" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="I80" s="33" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
     </row>
     <row r="81" spans="1:9" ht="17.100000000000001" customHeight="1">
       <c r="A81" s="12" t="s">
+        <v>143</v>
+      </c>
+      <c r="B81" s="13" t="s">
+        <v>11</v>
+      </c>
+      <c r="C81" s="14" t="s">
+        <v>12</v>
+      </c>
+      <c r="D81" s="14" t="s">
+        <v>125</v>
+      </c>
+      <c r="E81" s="14" t="s">
         <v>144</v>
       </c>
-      <c r="B81" s="13" t="s">
-        <v>11</v>
-      </c>
-      <c r="C81" s="14" t="s">
-        <v>12</v>
-      </c>
-      <c r="D81" s="14" t="s">
-        <v>126</v>
-      </c>
-      <c r="E81" s="14" t="s">
-        <v>145</v>
-      </c>
       <c r="F81" s="14" t="s">
         <v>15</v>
       </c>
@@ -5210,28 +5207,28 @@
         <v>16</v>
       </c>
       <c r="H81" s="15" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="I81" s="33" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
     </row>
     <row r="82" spans="1:9" ht="17.100000000000001" customHeight="1">
       <c r="A82" s="12" t="s">
+        <v>145</v>
+      </c>
+      <c r="B82" s="13" t="s">
+        <v>11</v>
+      </c>
+      <c r="C82" s="14" t="s">
+        <v>12</v>
+      </c>
+      <c r="D82" s="14" t="s">
+        <v>125</v>
+      </c>
+      <c r="E82" s="14" t="s">
         <v>146</v>
       </c>
-      <c r="B82" s="13" t="s">
-        <v>11</v>
-      </c>
-      <c r="C82" s="14" t="s">
-        <v>12</v>
-      </c>
-      <c r="D82" s="14" t="s">
-        <v>126</v>
-      </c>
-      <c r="E82" s="14" t="s">
-        <v>147</v>
-      </c>
       <c r="F82" s="14" t="s">
         <v>15</v>
       </c>
@@ -5239,28 +5236,28 @@
         <v>16</v>
       </c>
       <c r="H82" s="15" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="I82" s="33" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
     </row>
     <row r="83" spans="1:9" ht="30" customHeight="1">
       <c r="A83" s="12" t="s">
+        <v>147</v>
+      </c>
+      <c r="B83" s="13" t="s">
+        <v>11</v>
+      </c>
+      <c r="C83" s="14" t="s">
+        <v>12</v>
+      </c>
+      <c r="D83" s="14" t="s">
+        <v>125</v>
+      </c>
+      <c r="E83" s="14" t="s">
         <v>148</v>
       </c>
-      <c r="B83" s="13" t="s">
-        <v>11</v>
-      </c>
-      <c r="C83" s="14" t="s">
-        <v>12</v>
-      </c>
-      <c r="D83" s="14" t="s">
-        <v>126</v>
-      </c>
-      <c r="E83" s="14" t="s">
-        <v>149</v>
-      </c>
       <c r="F83" s="14" t="s">
         <v>15</v>
       </c>
@@ -5268,28 +5265,28 @@
         <v>16</v>
       </c>
       <c r="H83" s="15" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="I83" s="33" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
     </row>
     <row r="84" spans="1:9" ht="17.100000000000001" customHeight="1">
       <c r="A84" s="12" t="s">
+        <v>149</v>
+      </c>
+      <c r="B84" s="13" t="s">
+        <v>11</v>
+      </c>
+      <c r="C84" s="14" t="s">
+        <v>12</v>
+      </c>
+      <c r="D84" s="14" t="s">
+        <v>125</v>
+      </c>
+      <c r="E84" s="14" t="s">
         <v>150</v>
       </c>
-      <c r="B84" s="13" t="s">
-        <v>11</v>
-      </c>
-      <c r="C84" s="14" t="s">
-        <v>12</v>
-      </c>
-      <c r="D84" s="14" t="s">
-        <v>126</v>
-      </c>
-      <c r="E84" s="14" t="s">
-        <v>151</v>
-      </c>
       <c r="F84" s="14" t="s">
         <v>15</v>
       </c>
@@ -5297,28 +5294,28 @@
         <v>16</v>
       </c>
       <c r="H84" s="15" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="I84" s="33" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
     </row>
     <row r="85" spans="1:9" ht="17.100000000000001" customHeight="1">
       <c r="A85" s="12" t="s">
+        <v>151</v>
+      </c>
+      <c r="B85" s="13" t="s">
+        <v>11</v>
+      </c>
+      <c r="C85" s="14" t="s">
+        <v>12</v>
+      </c>
+      <c r="D85" s="14" t="s">
+        <v>125</v>
+      </c>
+      <c r="E85" s="14" t="s">
         <v>152</v>
       </c>
-      <c r="B85" s="13" t="s">
-        <v>11</v>
-      </c>
-      <c r="C85" s="14" t="s">
-        <v>12</v>
-      </c>
-      <c r="D85" s="14" t="s">
-        <v>126</v>
-      </c>
-      <c r="E85" s="14" t="s">
-        <v>153</v>
-      </c>
       <c r="F85" s="14" t="s">
         <v>15</v>
       </c>
@@ -5326,28 +5323,28 @@
         <v>16</v>
       </c>
       <c r="H85" s="15" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="I85" s="34" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
     </row>
     <row r="86" spans="1:9" ht="13.5" customHeight="1">
       <c r="A86" s="28" t="s">
+        <v>153</v>
+      </c>
+      <c r="B86" s="13" t="s">
+        <v>11</v>
+      </c>
+      <c r="C86" s="14" t="s">
+        <v>12</v>
+      </c>
+      <c r="D86" s="14" t="s">
+        <v>125</v>
+      </c>
+      <c r="E86" s="14" t="s">
         <v>154</v>
       </c>
-      <c r="B86" s="13" t="s">
-        <v>11</v>
-      </c>
-      <c r="C86" s="14" t="s">
-        <v>12</v>
-      </c>
-      <c r="D86" s="14" t="s">
-        <v>126</v>
-      </c>
-      <c r="E86" s="14" t="s">
-        <v>155</v>
-      </c>
       <c r="F86" s="14" t="s">
         <v>15</v>
       </c>
@@ -5355,73 +5352,61 @@
         <v>16</v>
       </c>
       <c r="H86" s="31" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="I86" s="12" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
     </row>
     <row r="87" spans="1:9" ht="45.75" customHeight="1">
       <c r="A87" s="37" t="s">
+        <v>155</v>
+      </c>
+      <c r="B87" s="38" t="s">
+        <v>11</v>
+      </c>
+      <c r="C87" s="14" t="s">
+        <v>12</v>
+      </c>
+      <c r="D87" s="14" t="s">
+        <v>125</v>
+      </c>
+      <c r="E87" s="39" t="s">
         <v>156</v>
       </c>
-      <c r="B87" s="38" t="s">
-        <v>11</v>
-      </c>
-      <c r="C87" s="14" t="s">
-        <v>12</v>
-      </c>
-      <c r="D87" s="14" t="s">
-        <v>126</v>
-      </c>
-      <c r="E87" s="39" t="s">
+      <c r="F87" s="14" t="s">
+        <v>15</v>
+      </c>
+      <c r="G87" s="15" t="s">
+        <v>16</v>
+      </c>
+      <c r="H87" s="40" t="s">
+        <v>91</v>
+      </c>
+      <c r="I87" s="41" t="s">
         <v>157</v>
-      </c>
-      <c r="F87" s="14" t="s">
-        <v>15</v>
-      </c>
-      <c r="G87" s="15" t="s">
-        <v>16</v>
-      </c>
-      <c r="H87" s="40" t="s">
-        <v>92</v>
-      </c>
-      <c r="I87" s="41" t="s">
-        <v>158</v>
       </c>
     </row>
     <row r="88" spans="1:9" ht="237.75" customHeight="1">
       <c r="A88" s="42" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="B88" s="13" t="s">
         <v>11</v>
       </c>
-      <c r="C88" s="14" t="s">
-        <v>12</v>
-      </c>
-      <c r="D88" s="23" t="s">
+      <c r="C88" s="14"/>
+      <c r="D88" s="23"/>
+      <c r="E88" s="12" t="s">
         <v>160</v>
       </c>
-      <c r="E88" s="12" t="s">
-        <v>161</v>
-      </c>
-      <c r="F88" s="13" t="s">
-        <v>15</v>
-      </c>
-      <c r="G88" s="15" t="s">
-        <v>16</v>
-      </c>
-      <c r="H88" s="15" t="s">
-        <v>92</v>
-      </c>
-      <c r="I88" s="42" t="s">
-        <v>159</v>
-      </c>
+      <c r="F88" s="13"/>
+      <c r="G88" s="15"/>
+      <c r="H88" s="15"/>
+      <c r="I88" s="42"/>
     </row>
     <row r="89" spans="1:9" ht="13.5" customHeight="1">
       <c r="A89" s="27" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="B89" s="21"/>
       <c r="C89" s="10"/>
@@ -5434,7 +5419,7 @@
     </row>
     <row r="90" spans="1:9" ht="17.100000000000001" customHeight="1">
       <c r="A90" s="12" t="s">
-        <v>90</v>
+        <v>158</v>
       </c>
       <c r="B90" s="13" t="s">
         <v>11</v>
@@ -5446,7 +5431,7 @@
         <v>13</v>
       </c>
       <c r="E90" s="14" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="F90" s="14" t="s">
         <v>25</v>
@@ -5455,15 +5440,15 @@
         <v>16</v>
       </c>
       <c r="H90" s="15" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="I90" s="33" t="s">
-        <v>90</v>
+        <v>158</v>
       </c>
     </row>
     <row r="91" spans="1:9" ht="17.100000000000001" customHeight="1">
       <c r="A91" s="12" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="B91" s="13" t="s">
         <v>11</v>
@@ -5475,7 +5460,7 @@
         <v>13</v>
       </c>
       <c r="E91" s="14" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="F91" s="14" t="s">
         <v>25</v>
@@ -5484,15 +5469,15 @@
         <v>16</v>
       </c>
       <c r="H91" s="15" t="s">
+        <v>91</v>
+      </c>
+      <c r="I91" s="33" t="s">
         <v>92</v>
-      </c>
-      <c r="I91" s="33" t="s">
-        <v>93</v>
       </c>
     </row>
     <row r="92" spans="1:9" ht="17.100000000000001" customHeight="1">
       <c r="A92" s="12" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="B92" s="13" t="s">
         <v>11</v>
@@ -5504,7 +5489,7 @@
         <v>13</v>
       </c>
       <c r="E92" s="14" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="F92" s="14" t="s">
         <v>25</v>
@@ -5513,15 +5498,15 @@
         <v>16</v>
       </c>
       <c r="H92" s="15" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="I92" s="33" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
     </row>
     <row r="93" spans="1:9" ht="17.100000000000001" customHeight="1">
       <c r="A93" s="12" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="B93" s="13" t="s">
         <v>11</v>
@@ -5533,7 +5518,7 @@
         <v>13</v>
       </c>
       <c r="E93" s="14" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="F93" s="14" t="s">
         <v>25</v>
@@ -5542,15 +5527,15 @@
         <v>16</v>
       </c>
       <c r="H93" s="15" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="I93" s="33" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
     </row>
     <row r="94" spans="1:9" ht="17.100000000000001" customHeight="1">
       <c r="A94" s="12" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="B94" s="13" t="s">
         <v>11</v>
@@ -5562,7 +5547,7 @@
         <v>13</v>
       </c>
       <c r="E94" s="14" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="F94" s="14" t="s">
         <v>25</v>
@@ -5571,15 +5556,15 @@
         <v>16</v>
       </c>
       <c r="H94" s="15" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="I94" s="33" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
     </row>
     <row r="95" spans="1:9" ht="17.100000000000001" customHeight="1">
       <c r="A95" s="12" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="B95" s="13" t="s">
         <v>11</v>
@@ -5591,7 +5576,7 @@
         <v>13</v>
       </c>
       <c r="E95" s="14" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="F95" s="14" t="s">
         <v>25</v>
@@ -5600,15 +5585,15 @@
         <v>16</v>
       </c>
       <c r="H95" s="15" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="I95" s="33" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
     </row>
     <row r="96" spans="1:9" ht="17.100000000000001" customHeight="1">
       <c r="A96" s="12" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="B96" s="13" t="s">
         <v>11</v>
@@ -5620,7 +5605,7 @@
         <v>13</v>
       </c>
       <c r="E96" s="14" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="F96" s="14" t="s">
         <v>25</v>
@@ -5629,15 +5614,15 @@
         <v>16</v>
       </c>
       <c r="H96" s="15" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="I96" s="33" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
     <row r="97" spans="1:9" ht="17.100000000000001" customHeight="1">
       <c r="A97" s="12" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="B97" s="13" t="s">
         <v>11</v>
@@ -5649,7 +5634,7 @@
         <v>13</v>
       </c>
       <c r="E97" s="14" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="F97" s="14" t="s">
         <v>25</v>
@@ -5658,15 +5643,15 @@
         <v>16</v>
       </c>
       <c r="H97" s="15" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="I97" s="33" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
     </row>
     <row r="98" spans="1:9" ht="17.100000000000001" customHeight="1">
       <c r="A98" s="12" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="B98" s="13" t="s">
         <v>11</v>
@@ -5678,7 +5663,7 @@
         <v>13</v>
       </c>
       <c r="E98" s="14" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="F98" s="14" t="s">
         <v>25</v>
@@ -5687,15 +5672,15 @@
         <v>16</v>
       </c>
       <c r="H98" s="15" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="I98" s="33" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
     </row>
     <row r="99" spans="1:9" ht="17.100000000000001" customHeight="1">
       <c r="A99" s="12" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="B99" s="13" t="s">
         <v>11</v>
@@ -5707,7 +5692,7 @@
         <v>13</v>
       </c>
       <c r="E99" s="14" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="F99" s="14" t="s">
         <v>25</v>
@@ -5716,15 +5701,15 @@
         <v>16</v>
       </c>
       <c r="H99" s="15" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="I99" s="33" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
     </row>
     <row r="100" spans="1:9" ht="17.100000000000001" customHeight="1">
       <c r="A100" s="12" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="B100" s="13" t="s">
         <v>11</v>
@@ -5736,7 +5721,7 @@
         <v>13</v>
       </c>
       <c r="E100" s="14" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="F100" s="14" t="s">
         <v>25</v>
@@ -5745,15 +5730,15 @@
         <v>16</v>
       </c>
       <c r="H100" s="15" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="I100" s="33" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
     </row>
     <row r="101" spans="1:9" ht="17.100000000000001" customHeight="1">
       <c r="A101" s="12" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="B101" s="13" t="s">
         <v>11</v>
@@ -5765,7 +5750,7 @@
         <v>13</v>
       </c>
       <c r="E101" s="14" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="F101" s="14" t="s">
         <v>25</v>
@@ -5774,15 +5759,15 @@
         <v>16</v>
       </c>
       <c r="H101" s="15" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="I101" s="33" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
     </row>
     <row r="102" spans="1:9" ht="17.100000000000001" customHeight="1">
       <c r="A102" s="12" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="B102" s="13" t="s">
         <v>11</v>
@@ -5794,7 +5779,7 @@
         <v>13</v>
       </c>
       <c r="E102" s="14" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="F102" s="14" t="s">
         <v>25</v>
@@ -5803,15 +5788,15 @@
         <v>16</v>
       </c>
       <c r="H102" s="15" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="I102" s="33" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
     </row>
     <row r="103" spans="1:9" ht="17.100000000000001" customHeight="1">
       <c r="A103" s="12" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="B103" s="13" t="s">
         <v>11</v>
@@ -5823,7 +5808,7 @@
         <v>13</v>
       </c>
       <c r="E103" s="14" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="F103" s="14" t="s">
         <v>25</v>
@@ -5832,15 +5817,15 @@
         <v>16</v>
       </c>
       <c r="H103" s="15" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="I103" s="33" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
     </row>
     <row r="104" spans="1:9" ht="17.100000000000001" customHeight="1">
       <c r="A104" s="12" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="B104" s="13" t="s">
         <v>11</v>
@@ -5852,7 +5837,7 @@
         <v>13</v>
       </c>
       <c r="E104" s="14" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="F104" s="14" t="s">
         <v>25</v>
@@ -5861,15 +5846,15 @@
         <v>16</v>
       </c>
       <c r="H104" s="15" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="I104" s="33" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
     </row>
     <row r="105" spans="1:9" ht="17.100000000000001" customHeight="1">
       <c r="A105" s="12" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="B105" s="13" t="s">
         <v>11</v>
@@ -5881,7 +5866,7 @@
         <v>13</v>
       </c>
       <c r="E105" s="14" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="F105" s="14" t="s">
         <v>25</v>
@@ -5890,15 +5875,15 @@
         <v>16</v>
       </c>
       <c r="H105" s="15" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="I105" s="34" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
     </row>
     <row r="106" spans="1:9" ht="13.5" customHeight="1">
       <c r="A106" s="28" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="B106" s="13" t="s">
         <v>11</v>
@@ -5910,7 +5895,7 @@
         <v>13</v>
       </c>
       <c r="E106" s="14" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="F106" s="14" t="s">
         <v>25</v>
@@ -5919,27 +5904,27 @@
         <v>16</v>
       </c>
       <c r="H106" s="31" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="I106" s="12" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
     </row>
     <row r="107" spans="1:9" ht="17.100000000000001" customHeight="1">
       <c r="A107" s="35" t="s">
+        <v>124</v>
+      </c>
+      <c r="B107" s="13" t="s">
+        <v>11</v>
+      </c>
+      <c r="C107" s="14" t="s">
+        <v>12</v>
+      </c>
+      <c r="D107" s="14" t="s">
         <v>125</v>
       </c>
-      <c r="B107" s="13" t="s">
-        <v>11</v>
-      </c>
-      <c r="C107" s="14" t="s">
-        <v>12</v>
-      </c>
-      <c r="D107" s="14" t="s">
-        <v>126</v>
-      </c>
       <c r="E107" s="14" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="F107" s="14" t="s">
         <v>25</v>
@@ -5948,15 +5933,15 @@
         <v>16</v>
       </c>
       <c r="H107" s="15" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="I107" s="36" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
     </row>
     <row r="108" spans="1:9" ht="17.100000000000001" customHeight="1">
       <c r="A108" s="12" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="B108" s="13" t="s">
         <v>11</v>
@@ -5965,10 +5950,10 @@
         <v>12</v>
       </c>
       <c r="D108" s="14" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="E108" s="14" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="F108" s="14" t="s">
         <v>25</v>
@@ -5977,15 +5962,15 @@
         <v>16</v>
       </c>
       <c r="H108" s="15" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="I108" s="33" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
     </row>
     <row r="109" spans="1:9" ht="17.100000000000001" customHeight="1">
       <c r="A109" s="12" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="B109" s="13" t="s">
         <v>11</v>
@@ -5994,10 +5979,10 @@
         <v>12</v>
       </c>
       <c r="D109" s="14" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="E109" s="14" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="F109" s="14" t="s">
         <v>25</v>
@@ -6006,15 +5991,15 @@
         <v>16</v>
       </c>
       <c r="H109" s="15" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="I109" s="33" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
     </row>
     <row r="110" spans="1:9" ht="17.100000000000001" customHeight="1">
       <c r="A110" s="12" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="B110" s="13" t="s">
         <v>11</v>
@@ -6023,10 +6008,10 @@
         <v>12</v>
       </c>
       <c r="D110" s="14" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="E110" s="14" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="F110" s="14" t="s">
         <v>25</v>
@@ -6035,15 +6020,15 @@
         <v>16</v>
       </c>
       <c r="H110" s="15" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="I110" s="33" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
     </row>
     <row r="111" spans="1:9" ht="17.100000000000001" customHeight="1">
       <c r="A111" s="12" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="B111" s="13" t="s">
         <v>11</v>
@@ -6052,10 +6037,10 @@
         <v>12</v>
       </c>
       <c r="D111" s="14" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="E111" s="14" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="F111" s="14" t="s">
         <v>25</v>
@@ -6064,15 +6049,15 @@
         <v>16</v>
       </c>
       <c r="H111" s="15" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="I111" s="33" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
     </row>
     <row r="112" spans="1:9" ht="17.100000000000001" customHeight="1">
       <c r="A112" s="12" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="B112" s="13" t="s">
         <v>11</v>
@@ -6081,10 +6066,10 @@
         <v>12</v>
       </c>
       <c r="D112" s="14" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="E112" s="14" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="F112" s="14" t="s">
         <v>25</v>
@@ -6093,15 +6078,15 @@
         <v>16</v>
       </c>
       <c r="H112" s="15" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="I112" s="33" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
     </row>
     <row r="113" spans="1:9" ht="17.100000000000001" customHeight="1">
       <c r="A113" s="12" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="B113" s="13" t="s">
         <v>11</v>
@@ -6110,10 +6095,10 @@
         <v>12</v>
       </c>
       <c r="D113" s="14" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="E113" s="14" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="F113" s="14" t="s">
         <v>25</v>
@@ -6122,15 +6107,15 @@
         <v>16</v>
       </c>
       <c r="H113" s="15" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="I113" s="33" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
     </row>
     <row r="114" spans="1:9" ht="17.100000000000001" customHeight="1">
       <c r="A114" s="12" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="B114" s="13" t="s">
         <v>11</v>
@@ -6139,10 +6124,10 @@
         <v>12</v>
       </c>
       <c r="D114" s="14" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="E114" s="14" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="F114" s="14" t="s">
         <v>25</v>
@@ -6151,15 +6136,15 @@
         <v>16</v>
       </c>
       <c r="H114" s="15" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="I114" s="33" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
     </row>
     <row r="115" spans="1:9" ht="17.100000000000001" customHeight="1">
       <c r="A115" s="12" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="B115" s="13" t="s">
         <v>11</v>
@@ -6168,10 +6153,10 @@
         <v>12</v>
       </c>
       <c r="D115" s="14" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="E115" s="14" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="F115" s="14" t="s">
         <v>25</v>
@@ -6180,15 +6165,15 @@
         <v>16</v>
       </c>
       <c r="H115" s="15" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="I115" s="33" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
     </row>
     <row r="116" spans="1:9" ht="17.100000000000001" customHeight="1">
       <c r="A116" s="12" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="B116" s="13" t="s">
         <v>11</v>
@@ -6197,10 +6182,10 @@
         <v>12</v>
       </c>
       <c r="D116" s="14" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="E116" s="14" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="F116" s="14" t="s">
         <v>25</v>
@@ -6209,15 +6194,15 @@
         <v>16</v>
       </c>
       <c r="H116" s="15" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="I116" s="33" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
     </row>
     <row r="117" spans="1:9" ht="17.100000000000001" customHeight="1">
       <c r="A117" s="12" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="B117" s="13" t="s">
         <v>11</v>
@@ -6226,10 +6211,10 @@
         <v>12</v>
       </c>
       <c r="D117" s="14" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="E117" s="14" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="F117" s="14" t="s">
         <v>25</v>
@@ -6238,15 +6223,15 @@
         <v>16</v>
       </c>
       <c r="H117" s="15" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="I117" s="33" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
     </row>
     <row r="118" spans="1:9" ht="30" customHeight="1">
       <c r="A118" s="12" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="B118" s="13" t="s">
         <v>11</v>
@@ -6255,10 +6240,10 @@
         <v>12</v>
       </c>
       <c r="D118" s="14" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="E118" s="14" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="F118" s="14" t="s">
         <v>25</v>
@@ -6267,15 +6252,15 @@
         <v>16</v>
       </c>
       <c r="H118" s="15" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="I118" s="33" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
     </row>
     <row r="119" spans="1:9" ht="17.100000000000001" customHeight="1">
       <c r="A119" s="12" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="B119" s="13" t="s">
         <v>11</v>
@@ -6284,10 +6269,10 @@
         <v>12</v>
       </c>
       <c r="D119" s="14" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="E119" s="14" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="F119" s="14" t="s">
         <v>25</v>
@@ -6296,15 +6281,15 @@
         <v>16</v>
       </c>
       <c r="H119" s="15" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="I119" s="33" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
     </row>
     <row r="120" spans="1:9" ht="17.100000000000001" customHeight="1">
       <c r="A120" s="12" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="B120" s="13" t="s">
         <v>11</v>
@@ -6313,10 +6298,10 @@
         <v>12</v>
       </c>
       <c r="D120" s="14" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="E120" s="14" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="F120" s="14" t="s">
         <v>25</v>
@@ -6325,15 +6310,15 @@
         <v>16</v>
       </c>
       <c r="H120" s="15" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="I120" s="34" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
     </row>
     <row r="121" spans="1:9" ht="13.5" customHeight="1">
       <c r="A121" s="28" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="B121" s="13" t="s">
         <v>11</v>
@@ -6342,10 +6327,10 @@
         <v>12</v>
       </c>
       <c r="D121" s="14" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="E121" s="14" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="F121" s="14" t="s">
         <v>25</v>
@@ -6354,28 +6339,28 @@
         <v>16</v>
       </c>
       <c r="H121" s="31" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="I121" s="12" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
     </row>
     <row r="122" spans="1:9" ht="45" customHeight="1">
       <c r="A122" s="37" t="s">
+        <v>193</v>
+      </c>
+      <c r="B122" s="38" t="s">
+        <v>11</v>
+      </c>
+      <c r="C122" s="14" t="s">
+        <v>12</v>
+      </c>
+      <c r="D122" s="14" t="s">
+        <v>125</v>
+      </c>
+      <c r="E122" s="39" t="s">
         <v>194</v>
       </c>
-      <c r="B122" s="38" t="s">
-        <v>11</v>
-      </c>
-      <c r="C122" s="14" t="s">
-        <v>12</v>
-      </c>
-      <c r="D122" s="14" t="s">
-        <v>126</v>
-      </c>
-      <c r="E122" s="39" t="s">
-        <v>195</v>
-      </c>
       <c r="F122" s="14" t="s">
         <v>25</v>
       </c>
@@ -6383,44 +6368,32 @@
         <v>16</v>
       </c>
       <c r="H122" s="40" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="I122" s="41" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
     </row>
     <row r="123" spans="1:9" ht="178.5" customHeight="1">
       <c r="A123" s="42" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="B123" s="13" t="s">
         <v>11</v>
       </c>
-      <c r="C123" s="14" t="s">
-        <v>12</v>
-      </c>
-      <c r="D123" s="23" t="s">
-        <v>160</v>
-      </c>
+      <c r="C123" s="14"/>
+      <c r="D123" s="23"/>
       <c r="E123" s="12" t="s">
-        <v>196</v>
-      </c>
-      <c r="F123" s="13" t="s">
-        <v>25</v>
-      </c>
-      <c r="G123" s="15" t="s">
-        <v>16</v>
-      </c>
-      <c r="H123" s="15" t="s">
-        <v>92</v>
-      </c>
-      <c r="I123" s="42" t="s">
-        <v>159</v>
-      </c>
+        <v>195</v>
+      </c>
+      <c r="F123" s="13"/>
+      <c r="G123" s="15"/>
+      <c r="H123" s="15"/>
+      <c r="I123" s="42"/>
     </row>
     <row r="124" spans="1:9" ht="21.75" customHeight="1">
       <c r="A124" s="43" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="B124" s="21"/>
       <c r="C124" s="10"/>
@@ -6433,49 +6406,49 @@
     </row>
     <row r="125" spans="1:9" ht="21.75" customHeight="1">
       <c r="A125" s="17" t="s">
+        <v>197</v>
+      </c>
+      <c r="B125" s="13" t="s">
+        <v>11</v>
+      </c>
+      <c r="C125" s="14" t="s">
+        <v>12</v>
+      </c>
+      <c r="D125" s="14" t="s">
+        <v>159</v>
+      </c>
+      <c r="E125" s="47" t="s">
         <v>198</v>
       </c>
-      <c r="B125" s="13" t="s">
-        <v>11</v>
-      </c>
-      <c r="C125" s="14" t="s">
-        <v>12</v>
-      </c>
-      <c r="D125" s="14" t="s">
-        <v>160</v>
-      </c>
-      <c r="E125" s="47" t="s">
+      <c r="F125" s="14" t="s">
+        <v>15</v>
+      </c>
+      <c r="G125" s="15" t="s">
+        <v>16</v>
+      </c>
+      <c r="H125" s="15" t="s">
         <v>199</v>
       </c>
-      <c r="F125" s="14" t="s">
-        <v>15</v>
-      </c>
-      <c r="G125" s="15" t="s">
-        <v>16</v>
-      </c>
-      <c r="H125" s="15" t="s">
-        <v>200</v>
-      </c>
       <c r="I125" s="18" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
     </row>
     <row r="126" spans="1:9" ht="84.75" customHeight="1">
       <c r="A126" s="48" t="s">
+        <v>200</v>
+      </c>
+      <c r="B126" s="14" t="s">
+        <v>11</v>
+      </c>
+      <c r="C126" s="14" t="s">
+        <v>12</v>
+      </c>
+      <c r="D126" s="23" t="s">
+        <v>159</v>
+      </c>
+      <c r="E126" s="12" t="s">
         <v>201</v>
       </c>
-      <c r="B126" s="14" t="s">
-        <v>11</v>
-      </c>
-      <c r="C126" s="14" t="s">
-        <v>12</v>
-      </c>
-      <c r="D126" s="23" t="s">
-        <v>160</v>
-      </c>
-      <c r="E126" s="12" t="s">
-        <v>202</v>
-      </c>
       <c r="F126" s="13" t="s">
         <v>15</v>
       </c>
@@ -6483,15 +6456,15 @@
         <v>16</v>
       </c>
       <c r="H126" s="15" t="s">
+        <v>199</v>
+      </c>
+      <c r="I126" s="48" t="s">
         <v>200</v>
-      </c>
-      <c r="I126" s="48" t="s">
-        <v>201</v>
       </c>
     </row>
     <row r="127" spans="1:9" ht="30" customHeight="1">
       <c r="A127" s="17" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="B127" s="13" t="s">
         <v>11</v>
@@ -6500,10 +6473,10 @@
         <v>12</v>
       </c>
       <c r="D127" s="23" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="E127" s="12" t="s">
-        <v>204</v>
+        <v>365</v>
       </c>
       <c r="F127" s="13" t="s">
         <v>15</v>
@@ -6512,15 +6485,15 @@
         <v>16</v>
       </c>
       <c r="H127" s="15" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="I127" s="17" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
     </row>
     <row r="128" spans="1:9" ht="46.5" customHeight="1">
       <c r="A128" s="17" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="B128" s="13" t="s">
         <v>11</v>
@@ -6529,10 +6502,10 @@
         <v>12</v>
       </c>
       <c r="D128" s="23" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="E128" s="12" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="F128" s="13" t="s">
         <v>15</v>
@@ -6541,15 +6514,15 @@
         <v>16</v>
       </c>
       <c r="H128" s="15" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="I128" s="17" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
     </row>
     <row r="129" spans="1:9" ht="66" customHeight="1">
       <c r="A129" s="17" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="B129" s="13" t="s">
         <v>11</v>
@@ -6558,10 +6531,10 @@
         <v>12</v>
       </c>
       <c r="D129" s="23" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="E129" s="12" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="F129" s="13" t="s">
         <v>15</v>
@@ -6570,15 +6543,15 @@
         <v>16</v>
       </c>
       <c r="H129" s="15" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="I129" s="17" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
     </row>
     <row r="130" spans="1:9" ht="33" customHeight="1">
       <c r="A130" s="17" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="B130" s="13" t="s">
         <v>11</v>
@@ -6587,10 +6560,10 @@
         <v>12</v>
       </c>
       <c r="D130" s="14" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="E130" s="49" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="F130" s="14" t="s">
         <v>15</v>
@@ -6599,15 +6572,15 @@
         <v>16</v>
       </c>
       <c r="H130" s="15" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="I130" s="17" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
     </row>
     <row r="131" spans="1:9" ht="25.5" customHeight="1">
       <c r="A131" s="17" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="B131" s="50" t="s">
         <v>11</v>
@@ -6616,10 +6589,10 @@
         <v>12</v>
       </c>
       <c r="D131" s="39" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="E131" s="14" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="F131" s="14" t="s">
         <v>15</v>
@@ -6628,15 +6601,15 @@
         <v>16</v>
       </c>
       <c r="H131" s="15" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="I131" s="17" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
     </row>
     <row r="132" spans="1:9" ht="25.5" customHeight="1">
       <c r="A132" s="43" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="B132" s="51"/>
       <c r="C132" s="52"/>
@@ -6649,49 +6622,49 @@
     </row>
     <row r="133" spans="1:9" ht="21.75" customHeight="1">
       <c r="A133" s="17" t="s">
+        <v>197</v>
+      </c>
+      <c r="B133" s="53" t="s">
+        <v>11</v>
+      </c>
+      <c r="C133" s="54" t="s">
+        <v>12</v>
+      </c>
+      <c r="D133" s="54" t="s">
+        <v>159</v>
+      </c>
+      <c r="E133" s="47" t="s">
         <v>198</v>
       </c>
-      <c r="B133" s="53" t="s">
-        <v>11</v>
-      </c>
-      <c r="C133" s="54" t="s">
-        <v>12</v>
-      </c>
-      <c r="D133" s="54" t="s">
-        <v>160</v>
-      </c>
-      <c r="E133" s="47" t="s">
+      <c r="F133" s="14" t="s">
+        <v>25</v>
+      </c>
+      <c r="G133" s="15" t="s">
+        <v>16</v>
+      </c>
+      <c r="H133" s="15" t="s">
         <v>199</v>
       </c>
-      <c r="F133" s="14" t="s">
-        <v>25</v>
-      </c>
-      <c r="G133" s="15" t="s">
-        <v>16</v>
-      </c>
-      <c r="H133" s="15" t="s">
-        <v>200</v>
-      </c>
       <c r="I133" s="18" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
     </row>
     <row r="134" spans="1:9" ht="84.75" customHeight="1">
       <c r="A134" s="48" t="s">
+        <v>200</v>
+      </c>
+      <c r="B134" s="14" t="s">
+        <v>11</v>
+      </c>
+      <c r="C134" s="14" t="s">
+        <v>12</v>
+      </c>
+      <c r="D134" s="23" t="s">
+        <v>159</v>
+      </c>
+      <c r="E134" s="12" t="s">
         <v>201</v>
       </c>
-      <c r="B134" s="14" t="s">
-        <v>11</v>
-      </c>
-      <c r="C134" s="14" t="s">
-        <v>12</v>
-      </c>
-      <c r="D134" s="23" t="s">
-        <v>160</v>
-      </c>
-      <c r="E134" s="12" t="s">
-        <v>202</v>
-      </c>
       <c r="F134" s="13" t="s">
         <v>25</v>
       </c>
@@ -6699,15 +6672,15 @@
         <v>16</v>
       </c>
       <c r="H134" s="15" t="s">
+        <v>199</v>
+      </c>
+      <c r="I134" s="48" t="s">
         <v>200</v>
-      </c>
-      <c r="I134" s="48" t="s">
-        <v>201</v>
       </c>
     </row>
     <row r="135" spans="1:9" ht="30" customHeight="1">
       <c r="A135" s="17" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="B135" s="13" t="s">
         <v>11</v>
@@ -6716,10 +6689,10 @@
         <v>12</v>
       </c>
       <c r="D135" s="23" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="E135" s="12" t="s">
-        <v>204</v>
+        <v>365</v>
       </c>
       <c r="F135" s="13" t="s">
         <v>25</v>
@@ -6728,15 +6701,15 @@
         <v>16</v>
       </c>
       <c r="H135" s="15" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="I135" s="17" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
     </row>
     <row r="136" spans="1:9" ht="46.5" customHeight="1">
       <c r="A136" s="17" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="B136" s="13" t="s">
         <v>11</v>
@@ -6745,10 +6718,10 @@
         <v>12</v>
       </c>
       <c r="D136" s="23" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="E136" s="12" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="F136" s="13" t="s">
         <v>25</v>
@@ -6757,15 +6730,15 @@
         <v>16</v>
       </c>
       <c r="H136" s="15" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="I136" s="17" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
     </row>
     <row r="137" spans="1:9" ht="66" customHeight="1">
       <c r="A137" s="17" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="B137" s="13" t="s">
         <v>11</v>
@@ -6774,10 +6747,10 @@
         <v>12</v>
       </c>
       <c r="D137" s="23" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="E137" s="12" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="F137" s="13" t="s">
         <v>25</v>
@@ -6786,15 +6759,15 @@
         <v>16</v>
       </c>
       <c r="H137" s="15" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="I137" s="17" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
     </row>
     <row r="138" spans="1:9" ht="33" customHeight="1">
       <c r="A138" s="17" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="B138" s="13" t="s">
         <v>11</v>
@@ -6803,10 +6776,10 @@
         <v>12</v>
       </c>
       <c r="D138" s="14" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="E138" s="49" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="F138" s="14" t="s">
         <v>25</v>
@@ -6815,15 +6788,15 @@
         <v>16</v>
       </c>
       <c r="H138" s="15" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="I138" s="17" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
     </row>
     <row r="139" spans="1:9" ht="25.5" customHeight="1">
       <c r="A139" s="17" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="B139" s="13" t="s">
         <v>11</v>
@@ -6832,10 +6805,10 @@
         <v>12</v>
       </c>
       <c r="D139" s="14" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="E139" s="14" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="F139" s="14" t="s">
         <v>25</v>
@@ -6844,15 +6817,15 @@
         <v>16</v>
       </c>
       <c r="H139" s="15" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="I139" s="17" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
     </row>
     <row r="140" spans="1:9" ht="13.5" customHeight="1">
       <c r="A140" s="55" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="B140" s="21"/>
       <c r="C140" s="10"/>
@@ -6865,36 +6838,36 @@
     </row>
     <row r="141" spans="1:9" ht="13.5" customHeight="1">
       <c r="A141" s="17" t="s">
+        <v>213</v>
+      </c>
+      <c r="B141" s="13" t="s">
+        <v>11</v>
+      </c>
+      <c r="C141" s="14" t="s">
+        <v>12</v>
+      </c>
+      <c r="D141" s="14" t="s">
+        <v>214</v>
+      </c>
+      <c r="E141" s="14" t="s">
         <v>215</v>
       </c>
-      <c r="B141" s="13" t="s">
-        <v>11</v>
-      </c>
-      <c r="C141" s="14" t="s">
-        <v>12</v>
-      </c>
-      <c r="D141" s="14" t="s">
+      <c r="F141" s="14" t="s">
+        <v>15</v>
+      </c>
+      <c r="G141" s="15" t="s">
+        <v>16</v>
+      </c>
+      <c r="H141" s="15" t="s">
         <v>216</v>
       </c>
-      <c r="E141" s="14" t="s">
-        <v>217</v>
-      </c>
-      <c r="F141" s="14" t="s">
-        <v>15</v>
-      </c>
-      <c r="G141" s="15" t="s">
-        <v>16</v>
-      </c>
-      <c r="H141" s="15" t="s">
-        <v>218</v>
-      </c>
       <c r="I141" s="17" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
     </row>
     <row r="142" spans="1:9" ht="13.5" customHeight="1">
       <c r="A142" s="17" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="B142" s="13" t="s">
         <v>11</v>
@@ -6903,27 +6876,27 @@
         <v>12</v>
       </c>
       <c r="D142" s="14" t="s">
+        <v>214</v>
+      </c>
+      <c r="E142" s="14" t="s">
+        <v>218</v>
+      </c>
+      <c r="F142" s="14" t="s">
+        <v>15</v>
+      </c>
+      <c r="G142" s="15" t="s">
+        <v>16</v>
+      </c>
+      <c r="H142" s="15" t="s">
         <v>216</v>
       </c>
-      <c r="E142" s="14" t="s">
-        <v>220</v>
-      </c>
-      <c r="F142" s="14" t="s">
-        <v>15</v>
-      </c>
-      <c r="G142" s="15" t="s">
-        <v>16</v>
-      </c>
-      <c r="H142" s="15" t="s">
-        <v>218</v>
-      </c>
       <c r="I142" s="17" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
     </row>
     <row r="143" spans="1:9" ht="17.100000000000001" customHeight="1">
       <c r="A143" s="12" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="B143" s="13" t="s">
         <v>11</v>
@@ -6932,27 +6905,27 @@
         <v>12</v>
       </c>
       <c r="D143" s="14" t="s">
+        <v>214</v>
+      </c>
+      <c r="E143" s="14" t="s">
+        <v>220</v>
+      </c>
+      <c r="F143" s="14" t="s">
+        <v>15</v>
+      </c>
+      <c r="G143" s="15" t="s">
+        <v>16</v>
+      </c>
+      <c r="H143" s="15" t="s">
         <v>216</v>
       </c>
-      <c r="E143" s="14" t="s">
-        <v>222</v>
-      </c>
-      <c r="F143" s="14" t="s">
-        <v>15</v>
-      </c>
-      <c r="G143" s="15" t="s">
-        <v>16</v>
-      </c>
-      <c r="H143" s="15" t="s">
-        <v>218</v>
-      </c>
       <c r="I143" s="36" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
     </row>
     <row r="144" spans="1:9" ht="17.100000000000001" customHeight="1">
       <c r="A144" s="12" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="B144" s="13" t="s">
         <v>11</v>
@@ -6961,27 +6934,27 @@
         <v>12</v>
       </c>
       <c r="D144" s="14" t="s">
+        <v>214</v>
+      </c>
+      <c r="E144" s="14" t="s">
+        <v>222</v>
+      </c>
+      <c r="F144" s="14" t="s">
+        <v>15</v>
+      </c>
+      <c r="G144" s="15" t="s">
+        <v>16</v>
+      </c>
+      <c r="H144" s="15" t="s">
         <v>216</v>
       </c>
-      <c r="E144" s="14" t="s">
-        <v>224</v>
-      </c>
-      <c r="F144" s="14" t="s">
-        <v>15</v>
-      </c>
-      <c r="G144" s="15" t="s">
-        <v>16</v>
-      </c>
-      <c r="H144" s="15" t="s">
-        <v>218</v>
-      </c>
       <c r="I144" s="33" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
     </row>
     <row r="145" spans="1:9" ht="17.100000000000001" customHeight="1">
       <c r="A145" s="12" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="B145" s="13" t="s">
         <v>11</v>
@@ -6990,27 +6963,27 @@
         <v>12</v>
       </c>
       <c r="D145" s="14" t="s">
+        <v>214</v>
+      </c>
+      <c r="E145" s="14" t="s">
+        <v>224</v>
+      </c>
+      <c r="F145" s="14" t="s">
+        <v>15</v>
+      </c>
+      <c r="G145" s="15" t="s">
+        <v>16</v>
+      </c>
+      <c r="H145" s="15" t="s">
         <v>216</v>
       </c>
-      <c r="E145" s="14" t="s">
-        <v>226</v>
-      </c>
-      <c r="F145" s="14" t="s">
-        <v>15</v>
-      </c>
-      <c r="G145" s="15" t="s">
-        <v>16</v>
-      </c>
-      <c r="H145" s="15" t="s">
-        <v>218</v>
-      </c>
       <c r="I145" s="33" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
     </row>
     <row r="146" spans="1:9" ht="17.100000000000001" customHeight="1">
       <c r="A146" s="12" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="B146" s="13" t="s">
         <v>11</v>
@@ -7019,27 +6992,27 @@
         <v>12</v>
       </c>
       <c r="D146" s="14" t="s">
+        <v>214</v>
+      </c>
+      <c r="E146" s="14" t="s">
+        <v>226</v>
+      </c>
+      <c r="F146" s="14" t="s">
+        <v>15</v>
+      </c>
+      <c r="G146" s="15" t="s">
+        <v>16</v>
+      </c>
+      <c r="H146" s="15" t="s">
         <v>216</v>
       </c>
-      <c r="E146" s="14" t="s">
-        <v>228</v>
-      </c>
-      <c r="F146" s="14" t="s">
-        <v>15</v>
-      </c>
-      <c r="G146" s="15" t="s">
-        <v>16</v>
-      </c>
-      <c r="H146" s="15" t="s">
-        <v>218</v>
-      </c>
       <c r="I146" s="33" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
     </row>
     <row r="147" spans="1:9" ht="17.100000000000001" customHeight="1">
       <c r="A147" s="12" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="B147" s="13" t="s">
         <v>11</v>
@@ -7048,27 +7021,27 @@
         <v>12</v>
       </c>
       <c r="D147" s="14" t="s">
+        <v>214</v>
+      </c>
+      <c r="E147" s="14" t="s">
+        <v>228</v>
+      </c>
+      <c r="F147" s="14" t="s">
+        <v>15</v>
+      </c>
+      <c r="G147" s="15" t="s">
+        <v>16</v>
+      </c>
+      <c r="H147" s="15" t="s">
         <v>216</v>
       </c>
-      <c r="E147" s="14" t="s">
-        <v>230</v>
-      </c>
-      <c r="F147" s="14" t="s">
-        <v>15</v>
-      </c>
-      <c r="G147" s="15" t="s">
-        <v>16</v>
-      </c>
-      <c r="H147" s="15" t="s">
-        <v>218</v>
-      </c>
       <c r="I147" s="33" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
     </row>
     <row r="148" spans="1:9" ht="17.100000000000001" customHeight="1">
       <c r="A148" s="12" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="B148" s="13" t="s">
         <v>11</v>
@@ -7077,27 +7050,27 @@
         <v>12</v>
       </c>
       <c r="D148" s="14" t="s">
+        <v>214</v>
+      </c>
+      <c r="E148" s="14" t="s">
+        <v>230</v>
+      </c>
+      <c r="F148" s="14" t="s">
+        <v>15</v>
+      </c>
+      <c r="G148" s="15" t="s">
+        <v>16</v>
+      </c>
+      <c r="H148" s="15" t="s">
         <v>216</v>
       </c>
-      <c r="E148" s="14" t="s">
-        <v>232</v>
-      </c>
-      <c r="F148" s="14" t="s">
-        <v>15</v>
-      </c>
-      <c r="G148" s="15" t="s">
-        <v>16</v>
-      </c>
-      <c r="H148" s="15" t="s">
-        <v>218</v>
-      </c>
       <c r="I148" s="33" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
     </row>
     <row r="149" spans="1:9" ht="17.100000000000001" customHeight="1">
       <c r="A149" s="12" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="B149" s="50" t="s">
         <v>11</v>
@@ -7106,27 +7079,27 @@
         <v>12</v>
       </c>
       <c r="D149" s="14" t="s">
+        <v>214</v>
+      </c>
+      <c r="E149" s="14" t="s">
+        <v>232</v>
+      </c>
+      <c r="F149" s="14" t="s">
+        <v>15</v>
+      </c>
+      <c r="G149" s="15" t="s">
+        <v>16</v>
+      </c>
+      <c r="H149" s="15" t="s">
         <v>216</v>
       </c>
-      <c r="E149" s="14" t="s">
-        <v>234</v>
-      </c>
-      <c r="F149" s="14" t="s">
-        <v>15</v>
-      </c>
-      <c r="G149" s="15" t="s">
-        <v>16</v>
-      </c>
-      <c r="H149" s="15" t="s">
-        <v>218</v>
-      </c>
       <c r="I149" s="33" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
     </row>
     <row r="150" spans="1:9" ht="13.5" customHeight="1">
       <c r="A150" s="55" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="B150" s="57"/>
       <c r="C150" s="10"/>
@@ -7139,7 +7112,7 @@
     </row>
     <row r="151" spans="1:9" ht="13.5" customHeight="1">
       <c r="A151" s="17" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="B151" s="58" t="s">
         <v>11</v>
@@ -7148,27 +7121,27 @@
         <v>12</v>
       </c>
       <c r="D151" s="14" t="s">
+        <v>214</v>
+      </c>
+      <c r="E151" s="14" t="s">
+        <v>234</v>
+      </c>
+      <c r="F151" s="14" t="s">
+        <v>25</v>
+      </c>
+      <c r="G151" s="15" t="s">
+        <v>16</v>
+      </c>
+      <c r="H151" s="15" t="s">
         <v>216</v>
       </c>
-      <c r="E151" s="14" t="s">
-        <v>236</v>
-      </c>
-      <c r="F151" s="14" t="s">
-        <v>25</v>
-      </c>
-      <c r="G151" s="15" t="s">
-        <v>16</v>
-      </c>
-      <c r="H151" s="15" t="s">
-        <v>218</v>
-      </c>
       <c r="I151" s="18" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
     </row>
     <row r="152" spans="1:9" ht="13.5" customHeight="1">
       <c r="A152" s="17" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="B152" s="13" t="s">
         <v>11</v>
@@ -7177,27 +7150,27 @@
         <v>12</v>
       </c>
       <c r="D152" s="14" t="s">
+        <v>214</v>
+      </c>
+      <c r="E152" s="14" t="s">
+        <v>235</v>
+      </c>
+      <c r="F152" s="14" t="s">
+        <v>25</v>
+      </c>
+      <c r="G152" s="15" t="s">
+        <v>16</v>
+      </c>
+      <c r="H152" s="15" t="s">
         <v>216</v>
       </c>
-      <c r="E152" s="14" t="s">
-        <v>237</v>
-      </c>
-      <c r="F152" s="14" t="s">
-        <v>25</v>
-      </c>
-      <c r="G152" s="15" t="s">
-        <v>16</v>
-      </c>
-      <c r="H152" s="15" t="s">
-        <v>218</v>
-      </c>
       <c r="I152" s="17" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
     </row>
     <row r="153" spans="1:9" ht="17.100000000000001" customHeight="1">
       <c r="A153" s="12" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="B153" s="13" t="s">
         <v>11</v>
@@ -7206,27 +7179,27 @@
         <v>12</v>
       </c>
       <c r="D153" s="14" t="s">
+        <v>214</v>
+      </c>
+      <c r="E153" s="14" t="s">
+        <v>236</v>
+      </c>
+      <c r="F153" s="14" t="s">
+        <v>25</v>
+      </c>
+      <c r="G153" s="15" t="s">
+        <v>16</v>
+      </c>
+      <c r="H153" s="15" t="s">
         <v>216</v>
       </c>
-      <c r="E153" s="14" t="s">
-        <v>238</v>
-      </c>
-      <c r="F153" s="14" t="s">
-        <v>25</v>
-      </c>
-      <c r="G153" s="15" t="s">
-        <v>16</v>
-      </c>
-      <c r="H153" s="15" t="s">
-        <v>218</v>
-      </c>
       <c r="I153" s="36" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
     </row>
     <row r="154" spans="1:9" ht="17.100000000000001" customHeight="1">
       <c r="A154" s="12" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="B154" s="13" t="s">
         <v>11</v>
@@ -7235,27 +7208,27 @@
         <v>12</v>
       </c>
       <c r="D154" s="14" t="s">
+        <v>214</v>
+      </c>
+      <c r="E154" s="14" t="s">
+        <v>237</v>
+      </c>
+      <c r="F154" s="14" t="s">
+        <v>25</v>
+      </c>
+      <c r="G154" s="15" t="s">
+        <v>16</v>
+      </c>
+      <c r="H154" s="15" t="s">
         <v>216</v>
       </c>
-      <c r="E154" s="14" t="s">
-        <v>239</v>
-      </c>
-      <c r="F154" s="14" t="s">
-        <v>25</v>
-      </c>
-      <c r="G154" s="15" t="s">
-        <v>16</v>
-      </c>
-      <c r="H154" s="15" t="s">
-        <v>218</v>
-      </c>
       <c r="I154" s="33" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
     </row>
     <row r="155" spans="1:9" ht="17.100000000000001" customHeight="1">
       <c r="A155" s="12" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="B155" s="13" t="s">
         <v>11</v>
@@ -7264,27 +7237,27 @@
         <v>12</v>
       </c>
       <c r="D155" s="14" t="s">
+        <v>214</v>
+      </c>
+      <c r="E155" s="14" t="s">
+        <v>238</v>
+      </c>
+      <c r="F155" s="14" t="s">
+        <v>25</v>
+      </c>
+      <c r="G155" s="15" t="s">
+        <v>16</v>
+      </c>
+      <c r="H155" s="15" t="s">
         <v>216</v>
       </c>
-      <c r="E155" s="14" t="s">
-        <v>240</v>
-      </c>
-      <c r="F155" s="14" t="s">
-        <v>25</v>
-      </c>
-      <c r="G155" s="15" t="s">
-        <v>16</v>
-      </c>
-      <c r="H155" s="15" t="s">
-        <v>218</v>
-      </c>
       <c r="I155" s="33" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
     </row>
     <row r="156" spans="1:9" ht="17.100000000000001" customHeight="1">
       <c r="A156" s="12" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="B156" s="13" t="s">
         <v>11</v>
@@ -7293,27 +7266,27 @@
         <v>12</v>
       </c>
       <c r="D156" s="14" t="s">
+        <v>214</v>
+      </c>
+      <c r="E156" s="14" t="s">
+        <v>239</v>
+      </c>
+      <c r="F156" s="14" t="s">
+        <v>25</v>
+      </c>
+      <c r="G156" s="15" t="s">
+        <v>16</v>
+      </c>
+      <c r="H156" s="15" t="s">
         <v>216</v>
       </c>
-      <c r="E156" s="14" t="s">
-        <v>241</v>
-      </c>
-      <c r="F156" s="14" t="s">
-        <v>25</v>
-      </c>
-      <c r="G156" s="15" t="s">
-        <v>16</v>
-      </c>
-      <c r="H156" s="15" t="s">
-        <v>218</v>
-      </c>
       <c r="I156" s="33" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
     </row>
     <row r="157" spans="1:9" ht="17.100000000000001" customHeight="1">
       <c r="A157" s="12" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="B157" s="13" t="s">
         <v>11</v>
@@ -7322,27 +7295,27 @@
         <v>12</v>
       </c>
       <c r="D157" s="14" t="s">
+        <v>214</v>
+      </c>
+      <c r="E157" s="14" t="s">
+        <v>240</v>
+      </c>
+      <c r="F157" s="14" t="s">
+        <v>25</v>
+      </c>
+      <c r="G157" s="15" t="s">
+        <v>16</v>
+      </c>
+      <c r="H157" s="15" t="s">
         <v>216</v>
       </c>
-      <c r="E157" s="14" t="s">
-        <v>242</v>
-      </c>
-      <c r="F157" s="14" t="s">
-        <v>25</v>
-      </c>
-      <c r="G157" s="15" t="s">
-        <v>16</v>
-      </c>
-      <c r="H157" s="15" t="s">
-        <v>218</v>
-      </c>
       <c r="I157" s="33" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
     </row>
     <row r="158" spans="1:9" ht="17.100000000000001" customHeight="1">
       <c r="A158" s="12" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="B158" s="13" t="s">
         <v>11</v>
@@ -7351,27 +7324,27 @@
         <v>12</v>
       </c>
       <c r="D158" s="14" t="s">
+        <v>214</v>
+      </c>
+      <c r="E158" s="14" t="s">
+        <v>241</v>
+      </c>
+      <c r="F158" s="14" t="s">
+        <v>25</v>
+      </c>
+      <c r="G158" s="15" t="s">
+        <v>16</v>
+      </c>
+      <c r="H158" s="15" t="s">
         <v>216</v>
       </c>
-      <c r="E158" s="14" t="s">
-        <v>243</v>
-      </c>
-      <c r="F158" s="14" t="s">
-        <v>25</v>
-      </c>
-      <c r="G158" s="15" t="s">
-        <v>16</v>
-      </c>
-      <c r="H158" s="15" t="s">
-        <v>218</v>
-      </c>
       <c r="I158" s="33" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
     </row>
     <row r="159" spans="1:9" ht="17.100000000000001" customHeight="1">
       <c r="A159" s="12" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="B159" s="13" t="s">
         <v>11</v>
@@ -7380,27 +7353,27 @@
         <v>12</v>
       </c>
       <c r="D159" s="14" t="s">
+        <v>214</v>
+      </c>
+      <c r="E159" s="14" t="s">
+        <v>242</v>
+      </c>
+      <c r="F159" s="14" t="s">
+        <v>25</v>
+      </c>
+      <c r="G159" s="15" t="s">
+        <v>16</v>
+      </c>
+      <c r="H159" s="15" t="s">
         <v>216</v>
       </c>
-      <c r="E159" s="14" t="s">
-        <v>244</v>
-      </c>
-      <c r="F159" s="14" t="s">
-        <v>25</v>
-      </c>
-      <c r="G159" s="15" t="s">
-        <v>16</v>
-      </c>
-      <c r="H159" s="15" t="s">
-        <v>218</v>
-      </c>
       <c r="I159" s="33" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
     </row>
     <row r="160" spans="1:9" ht="13.5" customHeight="1">
       <c r="A160" s="59" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="B160" s="9"/>
       <c r="C160" s="10"/>
@@ -7413,36 +7386,36 @@
     </row>
     <row r="161" spans="1:9" ht="13.5" customHeight="1">
       <c r="A161" s="61" t="s">
+        <v>244</v>
+      </c>
+      <c r="B161" s="38" t="s">
+        <v>11</v>
+      </c>
+      <c r="C161" s="14" t="s">
+        <v>12</v>
+      </c>
+      <c r="D161" s="14" t="s">
+        <v>214</v>
+      </c>
+      <c r="E161" s="14" t="s">
+        <v>245</v>
+      </c>
+      <c r="F161" s="14" t="s">
+        <v>15</v>
+      </c>
+      <c r="G161" s="15" t="s">
+        <v>16</v>
+      </c>
+      <c r="H161" s="40" t="s">
         <v>246</v>
       </c>
-      <c r="B161" s="38" t="s">
-        <v>11</v>
-      </c>
-      <c r="C161" s="14" t="s">
-        <v>12</v>
-      </c>
-      <c r="D161" s="14" t="s">
-        <v>216</v>
-      </c>
-      <c r="E161" s="14" t="s">
-        <v>247</v>
-      </c>
-      <c r="F161" s="14" t="s">
-        <v>15</v>
-      </c>
-      <c r="G161" s="15" t="s">
-        <v>16</v>
-      </c>
-      <c r="H161" s="40" t="s">
-        <v>248</v>
-      </c>
       <c r="I161" s="62" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
     </row>
     <row r="162" spans="1:9" ht="45.75" customHeight="1">
       <c r="A162" s="63" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="B162" s="38" t="s">
         <v>11</v>
@@ -7451,10 +7424,10 @@
         <v>12</v>
       </c>
       <c r="D162" s="14" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="E162" s="14" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="F162" s="14" t="s">
         <v>15</v>
@@ -7463,15 +7436,15 @@
         <v>16</v>
       </c>
       <c r="H162" s="40" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="I162" s="62" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
     </row>
     <row r="163" spans="1:9" ht="30.75" customHeight="1">
       <c r="A163" s="64" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="B163" s="38" t="s">
         <v>11</v>
@@ -7480,10 +7453,10 @@
         <v>12</v>
       </c>
       <c r="D163" s="14" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="E163" s="14" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="F163" s="14" t="s">
         <v>15</v>
@@ -7492,44 +7465,44 @@
         <v>16</v>
       </c>
       <c r="H163" s="40" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="I163" s="65" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
     </row>
     <row r="164" spans="1:9" ht="13.5" customHeight="1">
       <c r="A164" s="63" t="s">
+        <v>251</v>
+      </c>
+      <c r="B164" s="38" t="s">
+        <v>11</v>
+      </c>
+      <c r="C164" s="14" t="s">
+        <v>12</v>
+      </c>
+      <c r="D164" s="14" t="s">
+        <v>214</v>
+      </c>
+      <c r="E164" s="14" t="s">
+        <v>252</v>
+      </c>
+      <c r="F164" s="14" t="s">
+        <v>15</v>
+      </c>
+      <c r="G164" s="15" t="s">
+        <v>16</v>
+      </c>
+      <c r="H164" s="40" t="s">
+        <v>246</v>
+      </c>
+      <c r="I164" s="62" t="s">
         <v>253</v>
-      </c>
-      <c r="B164" s="38" t="s">
-        <v>11</v>
-      </c>
-      <c r="C164" s="14" t="s">
-        <v>12</v>
-      </c>
-      <c r="D164" s="14" t="s">
-        <v>216</v>
-      </c>
-      <c r="E164" s="14" t="s">
-        <v>254</v>
-      </c>
-      <c r="F164" s="14" t="s">
-        <v>15</v>
-      </c>
-      <c r="G164" s="15" t="s">
-        <v>16</v>
-      </c>
-      <c r="H164" s="40" t="s">
-        <v>248</v>
-      </c>
-      <c r="I164" s="62" t="s">
-        <v>255</v>
       </c>
     </row>
     <row r="165" spans="1:9" ht="13.5" customHeight="1">
       <c r="A165" s="63" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="B165" s="38" t="s">
         <v>11</v>
@@ -7538,10 +7511,10 @@
         <v>12</v>
       </c>
       <c r="D165" s="14" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="E165" s="14" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="F165" s="14" t="s">
         <v>15</v>
@@ -7550,44 +7523,44 @@
         <v>16</v>
       </c>
       <c r="H165" s="40" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="I165" s="66" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
     </row>
     <row r="166" spans="1:9" ht="45.75" customHeight="1">
       <c r="A166" s="42" t="s">
+        <v>256</v>
+      </c>
+      <c r="B166" s="13" t="s">
+        <v>11</v>
+      </c>
+      <c r="C166" s="14" t="s">
+        <v>12</v>
+      </c>
+      <c r="D166" s="14" t="s">
+        <v>214</v>
+      </c>
+      <c r="E166" s="14" t="s">
+        <v>257</v>
+      </c>
+      <c r="F166" s="14" t="s">
+        <v>15</v>
+      </c>
+      <c r="G166" s="15" t="s">
+        <v>16</v>
+      </c>
+      <c r="H166" s="31" t="s">
+        <v>246</v>
+      </c>
+      <c r="I166" s="12" t="s">
         <v>258</v>
-      </c>
-      <c r="B166" s="13" t="s">
-        <v>11</v>
-      </c>
-      <c r="C166" s="14" t="s">
-        <v>12</v>
-      </c>
-      <c r="D166" s="14" t="s">
-        <v>216</v>
-      </c>
-      <c r="E166" s="14" t="s">
-        <v>259</v>
-      </c>
-      <c r="F166" s="14" t="s">
-        <v>15</v>
-      </c>
-      <c r="G166" s="15" t="s">
-        <v>16</v>
-      </c>
-      <c r="H166" s="31" t="s">
-        <v>248</v>
-      </c>
-      <c r="I166" s="12" t="s">
-        <v>260</v>
       </c>
     </row>
     <row r="167" spans="1:9" ht="30.75" customHeight="1">
       <c r="A167" s="12" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
       <c r="B167" s="13" t="s">
         <v>11</v>
@@ -7596,10 +7569,10 @@
         <v>12</v>
       </c>
       <c r="D167" s="14" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="E167" s="67" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="F167" s="14" t="s">
         <v>15</v>
@@ -7608,15 +7581,15 @@
         <v>16</v>
       </c>
       <c r="H167" s="15" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="I167" s="17" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
     </row>
     <row r="168" spans="1:9" ht="30.75" customHeight="1">
       <c r="A168" s="12" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="B168" s="13" t="s">
         <v>11</v>
@@ -7625,10 +7598,10 @@
         <v>12</v>
       </c>
       <c r="D168" s="14" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="E168" s="14" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="F168" s="14" t="s">
         <v>15</v>
@@ -7637,15 +7610,15 @@
         <v>16</v>
       </c>
       <c r="H168" s="31" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="I168" s="12" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
     </row>
     <row r="169" spans="1:9" ht="13.5" customHeight="1">
       <c r="A169" s="12" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c r="B169" s="13" t="s">
         <v>11</v>
@@ -7654,10 +7627,10 @@
         <v>12</v>
       </c>
       <c r="D169" s="14" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="E169" s="14" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
       <c r="F169" s="14" t="s">
         <v>15</v>
@@ -7666,102 +7639,102 @@
         <v>16</v>
       </c>
       <c r="H169" s="31" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="I169" s="12" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
     </row>
     <row r="170" spans="1:9" ht="13.5" customHeight="1">
       <c r="A170" s="28" t="s">
+        <v>264</v>
+      </c>
+      <c r="B170" s="13" t="s">
+        <v>11</v>
+      </c>
+      <c r="C170" s="14" t="s">
+        <v>12</v>
+      </c>
+      <c r="D170" s="14" t="s">
+        <v>214</v>
+      </c>
+      <c r="E170" s="14" t="s">
+        <v>265</v>
+      </c>
+      <c r="F170" s="14" t="s">
+        <v>15</v>
+      </c>
+      <c r="G170" s="15" t="s">
+        <v>16</v>
+      </c>
+      <c r="H170" s="31" t="s">
+        <v>246</v>
+      </c>
+      <c r="I170" s="28" t="s">
         <v>266</v>
-      </c>
-      <c r="B170" s="13" t="s">
-        <v>11</v>
-      </c>
-      <c r="C170" s="14" t="s">
-        <v>12</v>
-      </c>
-      <c r="D170" s="14" t="s">
-        <v>216</v>
-      </c>
-      <c r="E170" s="14" t="s">
-        <v>267</v>
-      </c>
-      <c r="F170" s="14" t="s">
-        <v>15</v>
-      </c>
-      <c r="G170" s="15" t="s">
-        <v>16</v>
-      </c>
-      <c r="H170" s="31" t="s">
-        <v>248</v>
-      </c>
-      <c r="I170" s="28" t="s">
-        <v>268</v>
       </c>
     </row>
     <row r="171" spans="1:9" ht="13.5" customHeight="1">
       <c r="A171" s="28" t="s">
+        <v>267</v>
+      </c>
+      <c r="B171" s="13" t="s">
+        <v>11</v>
+      </c>
+      <c r="C171" s="14" t="s">
+        <v>12</v>
+      </c>
+      <c r="D171" s="14" t="s">
+        <v>214</v>
+      </c>
+      <c r="E171" s="14" t="s">
+        <v>268</v>
+      </c>
+      <c r="F171" s="14" t="s">
+        <v>15</v>
+      </c>
+      <c r="G171" s="15" t="s">
+        <v>16</v>
+      </c>
+      <c r="H171" s="31" t="s">
+        <v>246</v>
+      </c>
+      <c r="I171" s="28" t="s">
         <v>269</v>
-      </c>
-      <c r="B171" s="13" t="s">
-        <v>11</v>
-      </c>
-      <c r="C171" s="14" t="s">
-        <v>12</v>
-      </c>
-      <c r="D171" s="14" t="s">
-        <v>216</v>
-      </c>
-      <c r="E171" s="14" t="s">
-        <v>270</v>
-      </c>
-      <c r="F171" s="14" t="s">
-        <v>15</v>
-      </c>
-      <c r="G171" s="15" t="s">
-        <v>16</v>
-      </c>
-      <c r="H171" s="31" t="s">
-        <v>248</v>
-      </c>
-      <c r="I171" s="28" t="s">
-        <v>271</v>
       </c>
     </row>
     <row r="172" spans="1:9" ht="13.5" customHeight="1">
       <c r="A172" s="12" t="s">
+        <v>270</v>
+      </c>
+      <c r="B172" s="13" t="s">
+        <v>11</v>
+      </c>
+      <c r="C172" s="14" t="s">
+        <v>12</v>
+      </c>
+      <c r="D172" s="14" t="s">
+        <v>214</v>
+      </c>
+      <c r="E172" s="14" t="s">
+        <v>271</v>
+      </c>
+      <c r="F172" s="14" t="s">
+        <v>15</v>
+      </c>
+      <c r="G172" s="15" t="s">
+        <v>16</v>
+      </c>
+      <c r="H172" s="31" t="s">
+        <v>246</v>
+      </c>
+      <c r="I172" s="28" t="s">
         <v>272</v>
-      </c>
-      <c r="B172" s="13" t="s">
-        <v>11</v>
-      </c>
-      <c r="C172" s="14" t="s">
-        <v>12</v>
-      </c>
-      <c r="D172" s="14" t="s">
-        <v>216</v>
-      </c>
-      <c r="E172" s="14" t="s">
-        <v>273</v>
-      </c>
-      <c r="F172" s="14" t="s">
-        <v>15</v>
-      </c>
-      <c r="G172" s="15" t="s">
-        <v>16</v>
-      </c>
-      <c r="H172" s="31" t="s">
-        <v>248</v>
-      </c>
-      <c r="I172" s="28" t="s">
-        <v>274</v>
       </c>
     </row>
     <row r="173" spans="1:9" ht="13.5" customHeight="1">
       <c r="A173" s="12" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="B173" s="13" t="s">
         <v>11</v>
@@ -7770,10 +7743,10 @@
         <v>12</v>
       </c>
       <c r="D173" s="14" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="E173" s="14" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="F173" s="14" t="s">
         <v>15</v>
@@ -7782,15 +7755,15 @@
         <v>16</v>
       </c>
       <c r="H173" s="31" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="I173" s="28" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
     </row>
     <row r="174" spans="1:9" ht="13.5" customHeight="1">
       <c r="A174" s="12" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="B174" s="13" t="s">
         <v>11</v>
@@ -7799,10 +7772,10 @@
         <v>12</v>
       </c>
       <c r="D174" s="14" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="E174" s="14" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="F174" s="14" t="s">
         <v>15</v>
@@ -7811,15 +7784,15 @@
         <v>16</v>
       </c>
       <c r="H174" s="31" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="I174" s="12" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
     </row>
     <row r="175" spans="1:9" ht="13.5" customHeight="1">
       <c r="A175" s="12" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
       <c r="B175" s="13" t="s">
         <v>11</v>
@@ -7828,10 +7801,10 @@
         <v>12</v>
       </c>
       <c r="D175" s="14" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="E175" s="14" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="F175" s="14" t="s">
         <v>15</v>
@@ -7840,44 +7813,44 @@
         <v>16</v>
       </c>
       <c r="H175" s="31" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="I175" s="12" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
     </row>
     <row r="176" spans="1:9" ht="45.75" customHeight="1">
       <c r="A176" s="17" t="s">
+        <v>276</v>
+      </c>
+      <c r="B176" s="13" t="s">
+        <v>11</v>
+      </c>
+      <c r="C176" s="14" t="s">
+        <v>12</v>
+      </c>
+      <c r="D176" s="14" t="s">
+        <v>214</v>
+      </c>
+      <c r="E176" s="39" t="s">
+        <v>277</v>
+      </c>
+      <c r="F176" s="14" t="s">
+        <v>15</v>
+      </c>
+      <c r="G176" s="15" t="s">
+        <v>16</v>
+      </c>
+      <c r="H176" s="31" t="s">
+        <v>246</v>
+      </c>
+      <c r="I176" s="12" t="s">
         <v>278</v>
-      </c>
-      <c r="B176" s="13" t="s">
-        <v>11</v>
-      </c>
-      <c r="C176" s="14" t="s">
-        <v>12</v>
-      </c>
-      <c r="D176" s="14" t="s">
-        <v>216</v>
-      </c>
-      <c r="E176" s="39" t="s">
-        <v>279</v>
-      </c>
-      <c r="F176" s="14" t="s">
-        <v>15</v>
-      </c>
-      <c r="G176" s="15" t="s">
-        <v>16</v>
-      </c>
-      <c r="H176" s="31" t="s">
-        <v>248</v>
-      </c>
-      <c r="I176" s="12" t="s">
-        <v>280</v>
       </c>
     </row>
     <row r="177" spans="1:9" ht="26.65" customHeight="1">
       <c r="A177" s="12" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
       <c r="B177" s="13" t="s">
         <v>11</v>
@@ -7886,10 +7859,10 @@
         <v>12</v>
       </c>
       <c r="D177" s="23" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="E177" s="12" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
       <c r="F177" s="13" t="s">
         <v>15</v>
@@ -7898,15 +7871,15 @@
         <v>16</v>
       </c>
       <c r="H177" s="15" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="I177" s="17" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
     </row>
     <row r="178" spans="1:9" ht="13.5" customHeight="1">
       <c r="A178" s="12" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
       <c r="B178" s="13" t="s">
         <v>11</v>
@@ -7915,10 +7888,10 @@
         <v>12</v>
       </c>
       <c r="D178" s="14" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="E178" s="22" t="s">
-        <v>283</v>
+        <v>281</v>
       </c>
       <c r="F178" s="14" t="s">
         <v>15</v>
@@ -7927,15 +7900,15 @@
         <v>16</v>
       </c>
       <c r="H178" s="31" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="I178" s="12" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
     </row>
     <row r="179" spans="1:9" ht="13.5" customHeight="1">
       <c r="A179" s="12" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="B179" s="13" t="s">
         <v>11</v>
@@ -7944,10 +7917,10 @@
         <v>12</v>
       </c>
       <c r="D179" s="14" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="E179" s="14" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
       <c r="F179" s="14" t="s">
         <v>15</v>
@@ -7956,15 +7929,15 @@
         <v>16</v>
       </c>
       <c r="H179" s="31" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="I179" s="12" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
     </row>
     <row r="180" spans="1:9" ht="30.75" customHeight="1">
       <c r="A180" s="12" t="s">
-        <v>286</v>
+        <v>284</v>
       </c>
       <c r="B180" s="13" t="s">
         <v>11</v>
@@ -7973,10 +7946,10 @@
         <v>12</v>
       </c>
       <c r="D180" s="14" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="E180" s="14" t="s">
-        <v>287</v>
+        <v>285</v>
       </c>
       <c r="F180" s="14" t="s">
         <v>15</v>
@@ -7985,15 +7958,15 @@
         <v>16</v>
       </c>
       <c r="H180" s="31" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="I180" s="12" t="s">
-        <v>286</v>
+        <v>284</v>
       </c>
     </row>
     <row r="181" spans="1:9" ht="30.75" customHeight="1">
       <c r="A181" s="12" t="s">
-        <v>288</v>
+        <v>286</v>
       </c>
       <c r="B181" s="13" t="s">
         <v>11</v>
@@ -8002,10 +7975,10 @@
         <v>12</v>
       </c>
       <c r="D181" s="14" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="E181" s="14" t="s">
-        <v>289</v>
+        <v>287</v>
       </c>
       <c r="F181" s="14" t="s">
         <v>15</v>
@@ -8014,15 +7987,15 @@
         <v>16</v>
       </c>
       <c r="H181" s="31" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="I181" s="12" t="s">
-        <v>288</v>
+        <v>286</v>
       </c>
     </row>
     <row r="182" spans="1:9" ht="30.75" customHeight="1">
       <c r="A182" s="12" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
       <c r="B182" s="13" t="s">
         <v>11</v>
@@ -8031,10 +8004,10 @@
         <v>12</v>
       </c>
       <c r="D182" s="14" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="E182" s="14" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
       <c r="F182" s="14" t="s">
         <v>15</v>
@@ -8043,15 +8016,15 @@
         <v>16</v>
       </c>
       <c r="H182" s="31" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="I182" s="12" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
     </row>
     <row r="183" spans="1:9" ht="30.75" customHeight="1">
       <c r="A183" s="12" t="s">
-        <v>292</v>
+        <v>290</v>
       </c>
       <c r="B183" s="13" t="s">
         <v>11</v>
@@ -8060,10 +8033,10 @@
         <v>12</v>
       </c>
       <c r="D183" s="14" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="E183" s="14" t="s">
-        <v>293</v>
+        <v>291</v>
       </c>
       <c r="F183" s="14" t="s">
         <v>15</v>
@@ -8072,15 +8045,15 @@
         <v>16</v>
       </c>
       <c r="H183" s="31" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="I183" s="12" t="s">
-        <v>292</v>
+        <v>290</v>
       </c>
     </row>
     <row r="184" spans="1:9" ht="13.5" customHeight="1">
       <c r="A184" s="12" t="s">
-        <v>294</v>
+        <v>292</v>
       </c>
       <c r="B184" s="13" t="s">
         <v>11</v>
@@ -8089,10 +8062,10 @@
         <v>12</v>
       </c>
       <c r="D184" s="14" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="E184" s="14" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
       <c r="F184" s="14" t="s">
         <v>15</v>
@@ -8101,15 +8074,15 @@
         <v>16</v>
       </c>
       <c r="H184" s="31" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="I184" s="12" t="s">
-        <v>294</v>
+        <v>292</v>
       </c>
     </row>
     <row r="185" spans="1:9" ht="13.5" customHeight="1">
       <c r="A185" s="12" t="s">
-        <v>296</v>
+        <v>294</v>
       </c>
       <c r="B185" s="13" t="s">
         <v>11</v>
@@ -8118,10 +8091,10 @@
         <v>12</v>
       </c>
       <c r="D185" s="14" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="E185" s="14" t="s">
-        <v>297</v>
+        <v>295</v>
       </c>
       <c r="F185" s="14" t="s">
         <v>15</v>
@@ -8130,15 +8103,15 @@
         <v>16</v>
       </c>
       <c r="H185" s="31" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="I185" s="12" t="s">
-        <v>296</v>
+        <v>294</v>
       </c>
     </row>
     <row r="186" spans="1:9" ht="30.75" customHeight="1">
       <c r="A186" s="12" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
       <c r="B186" s="13" t="s">
         <v>11</v>
@@ -8147,10 +8120,10 @@
         <v>12</v>
       </c>
       <c r="D186" s="14" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="E186" s="14" t="s">
-        <v>299</v>
+        <v>297</v>
       </c>
       <c r="F186" s="14" t="s">
         <v>15</v>
@@ -8159,15 +8132,15 @@
         <v>16</v>
       </c>
       <c r="H186" s="31" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="I186" s="12" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
     </row>
     <row r="187" spans="1:9" ht="30.75" customHeight="1">
       <c r="A187" s="12" t="s">
-        <v>300</v>
+        <v>298</v>
       </c>
       <c r="B187" s="13" t="s">
         <v>11</v>
@@ -8176,10 +8149,10 @@
         <v>12</v>
       </c>
       <c r="D187" s="14" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="E187" s="14" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="F187" s="14" t="s">
         <v>15</v>
@@ -8188,15 +8161,15 @@
         <v>16</v>
       </c>
       <c r="H187" s="31" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="I187" s="12" t="s">
-        <v>300</v>
+        <v>298</v>
       </c>
     </row>
     <row r="188" spans="1:9" ht="30.75" customHeight="1">
       <c r="A188" s="12" t="s">
-        <v>301</v>
+        <v>299</v>
       </c>
       <c r="B188" s="50" t="s">
         <v>11</v>
@@ -8205,10 +8178,10 @@
         <v>12</v>
       </c>
       <c r="D188" s="39" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="E188" s="14" t="s">
-        <v>302</v>
+        <v>300</v>
       </c>
       <c r="F188" s="14" t="s">
         <v>15</v>
@@ -8217,15 +8190,15 @@
         <v>16</v>
       </c>
       <c r="H188" s="31" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="I188" s="12" t="s">
-        <v>301</v>
+        <v>299</v>
       </c>
     </row>
     <row r="189" spans="1:9" ht="13.5" customHeight="1">
       <c r="A189" s="59" t="s">
-        <v>303</v>
+        <v>301</v>
       </c>
       <c r="B189" s="68"/>
       <c r="C189" s="56"/>
@@ -8238,36 +8211,36 @@
     </row>
     <row r="190" spans="1:9" ht="13.5" customHeight="1">
       <c r="A190" s="61" t="s">
+        <v>244</v>
+      </c>
+      <c r="B190" s="70" t="s">
+        <v>11</v>
+      </c>
+      <c r="C190" s="22" t="s">
+        <v>12</v>
+      </c>
+      <c r="D190" s="22" t="s">
+        <v>214</v>
+      </c>
+      <c r="E190" s="14" t="s">
+        <v>302</v>
+      </c>
+      <c r="F190" s="14" t="s">
+        <v>25</v>
+      </c>
+      <c r="G190" s="15" t="s">
+        <v>16</v>
+      </c>
+      <c r="H190" s="40" t="s">
         <v>246</v>
       </c>
-      <c r="B190" s="70" t="s">
-        <v>11</v>
-      </c>
-      <c r="C190" s="22" t="s">
-        <v>12</v>
-      </c>
-      <c r="D190" s="22" t="s">
-        <v>216</v>
-      </c>
-      <c r="E190" s="14" t="s">
-        <v>304</v>
-      </c>
-      <c r="F190" s="14" t="s">
-        <v>25</v>
-      </c>
-      <c r="G190" s="15" t="s">
-        <v>16</v>
-      </c>
-      <c r="H190" s="40" t="s">
-        <v>248</v>
-      </c>
       <c r="I190" s="62" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
     </row>
     <row r="191" spans="1:9" ht="45.75" customHeight="1">
       <c r="A191" s="63" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="B191" s="38" t="s">
         <v>11</v>
@@ -8276,10 +8249,10 @@
         <v>12</v>
       </c>
       <c r="D191" s="14" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="E191" s="14" t="s">
-        <v>305</v>
+        <v>303</v>
       </c>
       <c r="F191" s="14" t="s">
         <v>25</v>
@@ -8288,15 +8261,15 @@
         <v>16</v>
       </c>
       <c r="H191" s="40" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="I191" s="62" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
     </row>
     <row r="192" spans="1:9" ht="30.75" customHeight="1">
       <c r="A192" s="64" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="B192" s="38" t="s">
         <v>11</v>
@@ -8305,10 +8278,10 @@
         <v>12</v>
       </c>
       <c r="D192" s="14" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="E192" s="14" t="s">
-        <v>306</v>
+        <v>304</v>
       </c>
       <c r="F192" s="14" t="s">
         <v>25</v>
@@ -8317,44 +8290,44 @@
         <v>16</v>
       </c>
       <c r="H192" s="40" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="I192" s="65" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
     </row>
     <row r="193" spans="1:9" ht="13.5" customHeight="1">
       <c r="A193" s="63" t="s">
+        <v>251</v>
+      </c>
+      <c r="B193" s="38" t="s">
+        <v>11</v>
+      </c>
+      <c r="C193" s="14" t="s">
+        <v>12</v>
+      </c>
+      <c r="D193" s="14" t="s">
+        <v>214</v>
+      </c>
+      <c r="E193" s="14" t="s">
+        <v>305</v>
+      </c>
+      <c r="F193" s="14" t="s">
+        <v>25</v>
+      </c>
+      <c r="G193" s="15" t="s">
+        <v>16</v>
+      </c>
+      <c r="H193" s="40" t="s">
+        <v>246</v>
+      </c>
+      <c r="I193" s="62" t="s">
         <v>253</v>
-      </c>
-      <c r="B193" s="38" t="s">
-        <v>11</v>
-      </c>
-      <c r="C193" s="14" t="s">
-        <v>12</v>
-      </c>
-      <c r="D193" s="14" t="s">
-        <v>216</v>
-      </c>
-      <c r="E193" s="14" t="s">
-        <v>307</v>
-      </c>
-      <c r="F193" s="14" t="s">
-        <v>25</v>
-      </c>
-      <c r="G193" s="15" t="s">
-        <v>16</v>
-      </c>
-      <c r="H193" s="40" t="s">
-        <v>248</v>
-      </c>
-      <c r="I193" s="62" t="s">
-        <v>255</v>
       </c>
     </row>
     <row r="194" spans="1:9" ht="13.5" customHeight="1">
       <c r="A194" s="63" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="B194" s="38" t="s">
         <v>11</v>
@@ -8363,10 +8336,10 @@
         <v>12</v>
       </c>
       <c r="D194" s="14" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="E194" s="14" t="s">
-        <v>308</v>
+        <v>306</v>
       </c>
       <c r="F194" s="14" t="s">
         <v>25</v>
@@ -8375,44 +8348,44 @@
         <v>16</v>
       </c>
       <c r="H194" s="40" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="I194" s="66" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
     </row>
     <row r="195" spans="1:9" ht="45.75" customHeight="1">
       <c r="A195" s="42" t="s">
+        <v>256</v>
+      </c>
+      <c r="B195" s="13" t="s">
+        <v>11</v>
+      </c>
+      <c r="C195" s="14" t="s">
+        <v>12</v>
+      </c>
+      <c r="D195" s="14" t="s">
+        <v>214</v>
+      </c>
+      <c r="E195" s="14" t="s">
+        <v>307</v>
+      </c>
+      <c r="F195" s="14" t="s">
+        <v>25</v>
+      </c>
+      <c r="G195" s="15" t="s">
+        <v>16</v>
+      </c>
+      <c r="H195" s="31" t="s">
+        <v>246</v>
+      </c>
+      <c r="I195" s="12" t="s">
         <v>258</v>
-      </c>
-      <c r="B195" s="13" t="s">
-        <v>11</v>
-      </c>
-      <c r="C195" s="14" t="s">
-        <v>12</v>
-      </c>
-      <c r="D195" s="14" t="s">
-        <v>216</v>
-      </c>
-      <c r="E195" s="14" t="s">
-        <v>309</v>
-      </c>
-      <c r="F195" s="14" t="s">
-        <v>25</v>
-      </c>
-      <c r="G195" s="15" t="s">
-        <v>16</v>
-      </c>
-      <c r="H195" s="31" t="s">
-        <v>248</v>
-      </c>
-      <c r="I195" s="12" t="s">
-        <v>260</v>
       </c>
     </row>
     <row r="196" spans="1:9" ht="30.75" customHeight="1">
       <c r="A196" s="12" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
       <c r="B196" s="13" t="s">
         <v>11</v>
@@ -8421,10 +8394,10 @@
         <v>12</v>
       </c>
       <c r="D196" s="14" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="E196" s="67" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="F196" s="14" t="s">
         <v>25</v>
@@ -8433,15 +8406,15 @@
         <v>16</v>
       </c>
       <c r="H196" s="15" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="I196" s="17" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
     </row>
     <row r="197" spans="1:9" ht="30.75" customHeight="1">
       <c r="A197" s="12" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="B197" s="13" t="s">
         <v>11</v>
@@ -8450,10 +8423,10 @@
         <v>12</v>
       </c>
       <c r="D197" s="14" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="E197" s="14" t="s">
-        <v>310</v>
+        <v>308</v>
       </c>
       <c r="F197" s="14" t="s">
         <v>25</v>
@@ -8462,15 +8435,15 @@
         <v>16</v>
       </c>
       <c r="H197" s="31" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="I197" s="12" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
     </row>
     <row r="198" spans="1:9" ht="13.5" customHeight="1">
       <c r="A198" s="12" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c r="B198" s="13" t="s">
         <v>11</v>
@@ -8479,10 +8452,10 @@
         <v>12</v>
       </c>
       <c r="D198" s="14" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="E198" s="14" t="s">
-        <v>311</v>
+        <v>309</v>
       </c>
       <c r="F198" s="14" t="s">
         <v>25</v>
@@ -8491,15 +8464,15 @@
         <v>16</v>
       </c>
       <c r="H198" s="31" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="I198" s="12" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
     </row>
     <row r="199" spans="1:9" ht="13.5" customHeight="1">
       <c r="A199" s="28" t="s">
-        <v>312</v>
+        <v>310</v>
       </c>
       <c r="B199" s="13" t="s">
         <v>11</v>
@@ -8508,10 +8481,10 @@
         <v>12</v>
       </c>
       <c r="D199" s="14" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="E199" s="14" t="s">
-        <v>313</v>
+        <v>311</v>
       </c>
       <c r="F199" s="14" t="s">
         <v>25</v>
@@ -8520,15 +8493,15 @@
         <v>16</v>
       </c>
       <c r="H199" s="31" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="I199" s="28" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
     </row>
     <row r="200" spans="1:9" ht="13.5" customHeight="1">
       <c r="A200" s="28" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="B200" s="13" t="s">
         <v>11</v>
@@ -8537,10 +8510,10 @@
         <v>12</v>
       </c>
       <c r="D200" s="14" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="E200" s="14" t="s">
-        <v>314</v>
+        <v>312</v>
       </c>
       <c r="F200" s="14" t="s">
         <v>25</v>
@@ -8549,44 +8522,44 @@
         <v>16</v>
       </c>
       <c r="H200" s="31" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="I200" s="28" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
     </row>
     <row r="201" spans="1:9" ht="13.5" customHeight="1">
       <c r="A201" s="28" t="s">
+        <v>270</v>
+      </c>
+      <c r="B201" s="13" t="s">
+        <v>11</v>
+      </c>
+      <c r="C201" s="14" t="s">
+        <v>12</v>
+      </c>
+      <c r="D201" s="14" t="s">
+        <v>214</v>
+      </c>
+      <c r="E201" s="14" t="s">
+        <v>313</v>
+      </c>
+      <c r="F201" s="14" t="s">
+        <v>25</v>
+      </c>
+      <c r="G201" s="15" t="s">
+        <v>16</v>
+      </c>
+      <c r="H201" s="31" t="s">
+        <v>246</v>
+      </c>
+      <c r="I201" s="28" t="s">
         <v>272</v>
-      </c>
-      <c r="B201" s="13" t="s">
-        <v>11</v>
-      </c>
-      <c r="C201" s="14" t="s">
-        <v>12</v>
-      </c>
-      <c r="D201" s="14" t="s">
-        <v>216</v>
-      </c>
-      <c r="E201" s="14" t="s">
-        <v>315</v>
-      </c>
-      <c r="F201" s="14" t="s">
-        <v>25</v>
-      </c>
-      <c r="G201" s="15" t="s">
-        <v>16</v>
-      </c>
-      <c r="H201" s="31" t="s">
-        <v>248</v>
-      </c>
-      <c r="I201" s="28" t="s">
-        <v>274</v>
       </c>
     </row>
     <row r="202" spans="1:9" ht="13.5" customHeight="1">
       <c r="A202" s="12" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="B202" s="13" t="s">
         <v>11</v>
@@ -8595,10 +8568,10 @@
         <v>12</v>
       </c>
       <c r="D202" s="14" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="E202" s="14" t="s">
-        <v>316</v>
+        <v>314</v>
       </c>
       <c r="F202" s="14" t="s">
         <v>25</v>
@@ -8607,15 +8580,15 @@
         <v>16</v>
       </c>
       <c r="H202" s="31" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="I202" s="28" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
     </row>
     <row r="203" spans="1:9" ht="13.5" customHeight="1">
       <c r="A203" s="12" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="B203" s="13" t="s">
         <v>11</v>
@@ -8624,10 +8597,10 @@
         <v>12</v>
       </c>
       <c r="D203" s="14" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="E203" s="14" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="F203" s="14" t="s">
         <v>25</v>
@@ -8636,15 +8609,15 @@
         <v>16</v>
       </c>
       <c r="H203" s="31" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="I203" s="12" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
     </row>
     <row r="204" spans="1:9" ht="13.5" customHeight="1">
       <c r="A204" s="12" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
       <c r="B204" s="13" t="s">
         <v>11</v>
@@ -8653,10 +8626,10 @@
         <v>12</v>
       </c>
       <c r="D204" s="14" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="E204" s="14" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="F204" s="14" t="s">
         <v>25</v>
@@ -8665,44 +8638,44 @@
         <v>16</v>
       </c>
       <c r="H204" s="31" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="I204" s="12" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
     </row>
     <row r="205" spans="1:9" ht="45.75" customHeight="1">
       <c r="A205" s="17" t="s">
+        <v>276</v>
+      </c>
+      <c r="B205" s="13" t="s">
+        <v>11</v>
+      </c>
+      <c r="C205" s="14" t="s">
+        <v>12</v>
+      </c>
+      <c r="D205" s="14" t="s">
+        <v>214</v>
+      </c>
+      <c r="E205" s="39" t="s">
+        <v>315</v>
+      </c>
+      <c r="F205" s="14" t="s">
+        <v>25</v>
+      </c>
+      <c r="G205" s="15" t="s">
+        <v>16</v>
+      </c>
+      <c r="H205" s="31" t="s">
+        <v>246</v>
+      </c>
+      <c r="I205" s="12" t="s">
         <v>278</v>
-      </c>
-      <c r="B205" s="13" t="s">
-        <v>11</v>
-      </c>
-      <c r="C205" s="14" t="s">
-        <v>12</v>
-      </c>
-      <c r="D205" s="14" t="s">
-        <v>216</v>
-      </c>
-      <c r="E205" s="39" t="s">
-        <v>317</v>
-      </c>
-      <c r="F205" s="14" t="s">
-        <v>25</v>
-      </c>
-      <c r="G205" s="15" t="s">
-        <v>16</v>
-      </c>
-      <c r="H205" s="31" t="s">
-        <v>248</v>
-      </c>
-      <c r="I205" s="12" t="s">
-        <v>280</v>
       </c>
     </row>
     <row r="206" spans="1:9" ht="26.65" customHeight="1">
       <c r="A206" s="12" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
       <c r="B206" s="13" t="s">
         <v>11</v>
@@ -8711,10 +8684,10 @@
         <v>12</v>
       </c>
       <c r="D206" s="23" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="E206" s="12" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
       <c r="F206" s="13" t="s">
         <v>25</v>
@@ -8723,15 +8696,15 @@
         <v>16</v>
       </c>
       <c r="H206" s="15" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="I206" s="17" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
     </row>
     <row r="207" spans="1:9" ht="13.5" customHeight="1">
       <c r="A207" s="12" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
       <c r="B207" s="13" t="s">
         <v>11</v>
@@ -8740,10 +8713,10 @@
         <v>12</v>
       </c>
       <c r="D207" s="14" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="E207" s="22" t="s">
-        <v>318</v>
+        <v>316</v>
       </c>
       <c r="F207" s="14" t="s">
         <v>25</v>
@@ -8752,15 +8725,15 @@
         <v>16</v>
       </c>
       <c r="H207" s="31" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="I207" s="12" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
     </row>
     <row r="208" spans="1:9" ht="13.5" customHeight="1">
       <c r="A208" s="12" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="B208" s="13" t="s">
         <v>11</v>
@@ -8769,10 +8742,10 @@
         <v>12</v>
       </c>
       <c r="D208" s="14" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="E208" s="14" t="s">
-        <v>319</v>
+        <v>317</v>
       </c>
       <c r="F208" s="14" t="s">
         <v>25</v>
@@ -8781,15 +8754,15 @@
         <v>16</v>
       </c>
       <c r="H208" s="31" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="I208" s="12" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
     </row>
     <row r="209" spans="1:9" ht="30.75" customHeight="1">
       <c r="A209" s="12" t="s">
-        <v>286</v>
+        <v>284</v>
       </c>
       <c r="B209" s="13" t="s">
         <v>11</v>
@@ -8798,10 +8771,10 @@
         <v>12</v>
       </c>
       <c r="D209" s="14" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="E209" s="14" t="s">
-        <v>320</v>
+        <v>318</v>
       </c>
       <c r="F209" s="14" t="s">
         <v>25</v>
@@ -8810,15 +8783,15 @@
         <v>16</v>
       </c>
       <c r="H209" s="31" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="I209" s="12" t="s">
-        <v>286</v>
+        <v>284</v>
       </c>
     </row>
     <row r="210" spans="1:9" ht="30.75" customHeight="1">
       <c r="A210" s="12" t="s">
-        <v>288</v>
+        <v>286</v>
       </c>
       <c r="B210" s="13" t="s">
         <v>11</v>
@@ -8827,10 +8800,10 @@
         <v>12</v>
       </c>
       <c r="D210" s="14" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="E210" s="14" t="s">
-        <v>321</v>
+        <v>319</v>
       </c>
       <c r="F210" s="14" t="s">
         <v>25</v>
@@ -8839,15 +8812,15 @@
         <v>16</v>
       </c>
       <c r="H210" s="31" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="I210" s="12" t="s">
-        <v>288</v>
+        <v>286</v>
       </c>
     </row>
     <row r="211" spans="1:9" ht="30.75" customHeight="1">
       <c r="A211" s="12" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
       <c r="B211" s="13" t="s">
         <v>11</v>
@@ -8856,10 +8829,10 @@
         <v>12</v>
       </c>
       <c r="D211" s="14" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="E211" s="14" t="s">
-        <v>322</v>
+        <v>320</v>
       </c>
       <c r="F211" s="14" t="s">
         <v>25</v>
@@ -8868,15 +8841,15 @@
         <v>16</v>
       </c>
       <c r="H211" s="31" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="I211" s="12" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
     </row>
     <row r="212" spans="1:9" ht="30.75" customHeight="1">
       <c r="A212" s="12" t="s">
-        <v>292</v>
+        <v>290</v>
       </c>
       <c r="B212" s="13" t="s">
         <v>11</v>
@@ -8885,10 +8858,10 @@
         <v>12</v>
       </c>
       <c r="D212" s="14" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="E212" s="14" t="s">
-        <v>323</v>
+        <v>321</v>
       </c>
       <c r="F212" s="14" t="s">
         <v>25</v>
@@ -8897,15 +8870,15 @@
         <v>16</v>
       </c>
       <c r="H212" s="31" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="I212" s="12" t="s">
-        <v>292</v>
+        <v>290</v>
       </c>
     </row>
     <row r="213" spans="1:9" ht="13.5" customHeight="1">
       <c r="A213" s="12" t="s">
-        <v>294</v>
+        <v>292</v>
       </c>
       <c r="B213" s="13" t="s">
         <v>11</v>
@@ -8914,10 +8887,10 @@
         <v>12</v>
       </c>
       <c r="D213" s="14" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="E213" s="14" t="s">
-        <v>324</v>
+        <v>322</v>
       </c>
       <c r="F213" s="14" t="s">
         <v>25</v>
@@ -8926,15 +8899,15 @@
         <v>16</v>
       </c>
       <c r="H213" s="31" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="I213" s="12" t="s">
-        <v>294</v>
+        <v>292</v>
       </c>
     </row>
     <row r="214" spans="1:9" ht="13.5" customHeight="1">
       <c r="A214" s="12" t="s">
-        <v>296</v>
+        <v>294</v>
       </c>
       <c r="B214" s="13" t="s">
         <v>11</v>
@@ -8943,10 +8916,10 @@
         <v>12</v>
       </c>
       <c r="D214" s="14" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="E214" s="14" t="s">
-        <v>325</v>
+        <v>323</v>
       </c>
       <c r="F214" s="14" t="s">
         <v>25</v>
@@ -8955,15 +8928,15 @@
         <v>16</v>
       </c>
       <c r="H214" s="31" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="I214" s="12" t="s">
-        <v>296</v>
+        <v>294</v>
       </c>
     </row>
     <row r="215" spans="1:9" ht="30.75" customHeight="1">
       <c r="A215" s="12" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
       <c r="B215" s="13" t="s">
         <v>11</v>
@@ -8972,10 +8945,10 @@
         <v>12</v>
       </c>
       <c r="D215" s="14" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="E215" s="14" t="s">
-        <v>326</v>
+        <v>324</v>
       </c>
       <c r="F215" s="14" t="s">
         <v>25</v>
@@ -8984,15 +8957,15 @@
         <v>16</v>
       </c>
       <c r="H215" s="31" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="I215" s="12" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
     </row>
     <row r="216" spans="1:9" ht="30.75" customHeight="1">
       <c r="A216" s="12" t="s">
-        <v>300</v>
+        <v>298</v>
       </c>
       <c r="B216" s="13" t="s">
         <v>11</v>
@@ -9001,10 +8974,10 @@
         <v>12</v>
       </c>
       <c r="D216" s="14" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="E216" s="14" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
       <c r="F216" s="14" t="s">
         <v>25</v>
@@ -9013,15 +8986,15 @@
         <v>16</v>
       </c>
       <c r="H216" s="31" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="I216" s="12" t="s">
-        <v>300</v>
+        <v>298</v>
       </c>
     </row>
     <row r="217" spans="1:9" ht="30.75" customHeight="1">
       <c r="A217" s="12" t="s">
-        <v>301</v>
+        <v>299</v>
       </c>
       <c r="B217" s="50" t="s">
         <v>11</v>
@@ -9030,10 +9003,10 @@
         <v>12</v>
       </c>
       <c r="D217" s="14" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="E217" s="14" t="s">
-        <v>327</v>
+        <v>325</v>
       </c>
       <c r="F217" s="14" t="s">
         <v>25</v>
@@ -9042,15 +9015,15 @@
         <v>16</v>
       </c>
       <c r="H217" s="31" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="I217" s="12" t="s">
-        <v>301</v>
+        <v>299</v>
       </c>
     </row>
     <row r="218" spans="1:9" ht="29.25" customHeight="1">
       <c r="A218" s="71" t="s">
-        <v>328</v>
+        <v>326</v>
       </c>
       <c r="B218" s="72"/>
       <c r="C218" s="21"/>
@@ -9063,7 +9036,7 @@
     </row>
     <row r="219" spans="1:9" ht="30.95" customHeight="1">
       <c r="A219" s="17" t="s">
-        <v>329</v>
+        <v>327</v>
       </c>
       <c r="B219" s="58" t="s">
         <v>11</v>
@@ -9072,10 +9045,10 @@
         <v>12</v>
       </c>
       <c r="D219" s="14" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="E219" s="14" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="F219" s="14" t="s">
         <v>15</v>
@@ -9084,15 +9057,15 @@
         <v>16</v>
       </c>
       <c r="H219" s="33" t="s">
-        <v>330</v>
+        <v>328</v>
       </c>
       <c r="I219" s="73" t="s">
-        <v>329</v>
+        <v>327</v>
       </c>
     </row>
     <row r="220" spans="1:9" ht="29.25" customHeight="1">
       <c r="A220" s="71" t="s">
-        <v>328</v>
+        <v>326</v>
       </c>
       <c r="B220" s="21"/>
       <c r="C220" s="10"/>
@@ -9105,7 +9078,7 @@
     </row>
     <row r="221" spans="1:9" ht="30.95" customHeight="1">
       <c r="A221" s="17" t="s">
-        <v>329</v>
+        <v>327</v>
       </c>
       <c r="B221" s="13" t="s">
         <v>11</v>
@@ -9114,10 +9087,10 @@
         <v>12</v>
       </c>
       <c r="D221" s="14" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="E221" s="14" t="s">
-        <v>309</v>
+        <v>307</v>
       </c>
       <c r="F221" s="14" t="s">
         <v>25</v>
@@ -9126,15 +9099,15 @@
         <v>16</v>
       </c>
       <c r="H221" s="33" t="s">
-        <v>330</v>
+        <v>328</v>
       </c>
       <c r="I221" s="73" t="s">
-        <v>329</v>
+        <v>327</v>
       </c>
     </row>
     <row r="222" spans="1:9" ht="14.45" customHeight="1">
       <c r="A222" s="55" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="B222" s="21"/>
       <c r="C222" s="10"/>
@@ -9147,19 +9120,19 @@
     </row>
     <row r="223" spans="1:9" ht="13.7" customHeight="1">
       <c r="A223" s="12" t="s">
+        <v>330</v>
+      </c>
+      <c r="B223" s="13" t="s">
+        <v>331</v>
+      </c>
+      <c r="C223" s="14" t="s">
         <v>332</v>
       </c>
-      <c r="B223" s="13" t="s">
+      <c r="D223" s="14" t="s">
         <v>333</v>
       </c>
-      <c r="C223" s="14" t="s">
+      <c r="E223" s="14" t="s">
         <v>334</v>
-      </c>
-      <c r="D223" s="14" t="s">
-        <v>335</v>
-      </c>
-      <c r="E223" s="14" t="s">
-        <v>336</v>
       </c>
       <c r="F223" s="14" t="s">
         <v>21</v>
@@ -9168,15 +9141,15 @@
         <v>16</v>
       </c>
       <c r="H223" s="75" t="s">
-        <v>332</v>
+        <v>330</v>
       </c>
       <c r="I223" s="16" t="s">
-        <v>337</v>
+        <v>335</v>
       </c>
     </row>
     <row r="224" spans="1:9" ht="24" customHeight="1">
       <c r="A224" s="76" t="s">
-        <v>338</v>
+        <v>336</v>
       </c>
       <c r="B224" s="21"/>
       <c r="C224" s="10"/>
@@ -9189,7 +9162,7 @@
     </row>
     <row r="225" spans="1:9" ht="24.6" customHeight="1">
       <c r="A225" s="12" t="s">
-        <v>339</v>
+        <v>337</v>
       </c>
       <c r="B225" s="13" t="s">
         <v>11</v>
@@ -9198,10 +9171,10 @@
         <v>12</v>
       </c>
       <c r="D225" s="14" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="E225" s="14" t="s">
-        <v>340</v>
+        <v>338</v>
       </c>
       <c r="F225" s="14" t="s">
         <v>21</v>
@@ -9210,15 +9183,15 @@
         <v>16</v>
       </c>
       <c r="H225" s="16" t="s">
-        <v>341</v>
+        <v>339</v>
       </c>
       <c r="I225" s="16" t="s">
-        <v>339</v>
+        <v>337</v>
       </c>
     </row>
     <row r="226" spans="1:9" ht="13.5" customHeight="1">
       <c r="A226" s="55" t="s">
-        <v>342</v>
+        <v>340</v>
       </c>
       <c r="B226" s="21"/>
       <c r="C226" s="10"/>
@@ -9246,10 +9219,10 @@
         <v>14</v>
       </c>
       <c r="F227" s="14" t="s">
-        <v>343</v>
+        <v>341</v>
       </c>
       <c r="G227" s="14" t="s">
-        <v>344</v>
+        <v>342</v>
       </c>
       <c r="H227" s="33" t="s">
         <v>10</v>
@@ -9273,10 +9246,10 @@
         <v>18</v>
       </c>
       <c r="F228" s="14" t="s">
-        <v>343</v>
+        <v>341</v>
       </c>
       <c r="G228" s="14" t="s">
-        <v>344</v>
+        <v>342</v>
       </c>
       <c r="H228" s="33" t="s">
         <v>17</v>
@@ -9285,7 +9258,7 @@
     </row>
     <row r="229" spans="1:9" ht="17.100000000000001" customHeight="1">
       <c r="A229" s="12" t="s">
-        <v>345</v>
+        <v>343</v>
       </c>
       <c r="B229" s="13" t="s">
         <v>11</v>
@@ -9294,25 +9267,25 @@
         <v>12</v>
       </c>
       <c r="D229" s="14" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="E229" s="14" t="s">
-        <v>346</v>
+        <v>344</v>
       </c>
       <c r="F229" s="14" t="s">
+        <v>341</v>
+      </c>
+      <c r="G229" s="14" t="s">
+        <v>342</v>
+      </c>
+      <c r="H229" s="33" t="s">
         <v>343</v>
-      </c>
-      <c r="G229" s="14" t="s">
-        <v>344</v>
-      </c>
-      <c r="H229" s="33" t="s">
-        <v>345</v>
       </c>
       <c r="I229" s="10"/>
     </row>
     <row r="230" spans="1:9" ht="17.100000000000001" customHeight="1">
       <c r="A230" s="12" t="s">
-        <v>347</v>
+        <v>345</v>
       </c>
       <c r="B230" s="13" t="s">
         <v>11</v>
@@ -9321,25 +9294,25 @@
         <v>12</v>
       </c>
       <c r="D230" s="14" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="E230" s="14" t="s">
-        <v>348</v>
+        <v>346</v>
       </c>
       <c r="F230" s="14" t="s">
-        <v>343</v>
+        <v>341</v>
       </c>
       <c r="G230" s="14" t="s">
-        <v>344</v>
+        <v>342</v>
       </c>
       <c r="H230" s="33" t="s">
-        <v>347</v>
+        <v>345</v>
       </c>
       <c r="I230" s="10"/>
     </row>
     <row r="231" spans="1:9" ht="17.100000000000001" customHeight="1">
       <c r="A231" s="12" t="s">
-        <v>349</v>
+        <v>347</v>
       </c>
       <c r="B231" s="13" t="s">
         <v>11</v>
@@ -9351,22 +9324,22 @@
         <v>20</v>
       </c>
       <c r="E231" s="14" t="s">
-        <v>350</v>
+        <v>348</v>
       </c>
       <c r="F231" s="14" t="s">
-        <v>343</v>
+        <v>341</v>
       </c>
       <c r="G231" s="14" t="s">
-        <v>344</v>
+        <v>342</v>
       </c>
       <c r="H231" s="33" t="s">
-        <v>349</v>
+        <v>347</v>
       </c>
       <c r="I231" s="10"/>
     </row>
     <row r="232" spans="1:9" ht="17.100000000000001" customHeight="1">
       <c r="A232" s="12" t="s">
-        <v>351</v>
+        <v>349</v>
       </c>
       <c r="B232" s="13" t="s">
         <v>11</v>
@@ -9375,25 +9348,25 @@
         <v>12</v>
       </c>
       <c r="D232" s="14" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="E232" s="14" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
       <c r="F232" s="14" t="s">
-        <v>343</v>
+        <v>341</v>
       </c>
       <c r="G232" s="14" t="s">
-        <v>344</v>
+        <v>342</v>
       </c>
       <c r="H232" s="33" t="s">
-        <v>351</v>
+        <v>349</v>
       </c>
       <c r="I232" s="10"/>
     </row>
     <row r="233" spans="1:9" ht="17.100000000000001" customHeight="1">
       <c r="A233" s="12" t="s">
-        <v>352</v>
+        <v>350</v>
       </c>
       <c r="B233" s="13" t="s">
         <v>11</v>
@@ -9402,25 +9375,25 @@
         <v>12</v>
       </c>
       <c r="D233" s="14" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="E233" s="14" t="s">
-        <v>353</v>
+        <v>351</v>
       </c>
       <c r="F233" s="14" t="s">
-        <v>343</v>
+        <v>341</v>
       </c>
       <c r="G233" s="14" t="s">
-        <v>344</v>
+        <v>342</v>
       </c>
       <c r="H233" s="33" t="s">
-        <v>352</v>
+        <v>350</v>
       </c>
       <c r="I233" s="10"/>
     </row>
     <row r="234" spans="1:9" ht="17.100000000000001" customHeight="1">
       <c r="A234" s="77" t="s">
-        <v>354</v>
+        <v>352</v>
       </c>
       <c r="B234" s="13" t="s">
         <v>11</v>
@@ -9429,25 +9402,25 @@
         <v>12</v>
       </c>
       <c r="D234" s="14" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="E234" s="14" t="s">
-        <v>355</v>
+        <v>353</v>
       </c>
       <c r="F234" s="14" t="s">
-        <v>343</v>
+        <v>341</v>
       </c>
       <c r="G234" s="14" t="s">
-        <v>344</v>
+        <v>342</v>
       </c>
       <c r="H234" s="33" t="s">
-        <v>354</v>
+        <v>352</v>
       </c>
       <c r="I234" s="10"/>
     </row>
     <row r="235" spans="1:9" ht="17.100000000000001" customHeight="1">
       <c r="A235" s="77" t="s">
-        <v>356</v>
+        <v>354</v>
       </c>
       <c r="B235" s="13" t="s">
         <v>11</v>
@@ -9456,25 +9429,25 @@
         <v>12</v>
       </c>
       <c r="D235" s="14" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="E235" s="14" t="s">
-        <v>357</v>
+        <v>355</v>
       </c>
       <c r="F235" s="14" t="s">
-        <v>343</v>
+        <v>341</v>
       </c>
       <c r="G235" s="14" t="s">
-        <v>344</v>
+        <v>342</v>
       </c>
       <c r="H235" s="34" t="s">
-        <v>356</v>
+        <v>354</v>
       </c>
       <c r="I235" s="10"/>
     </row>
     <row r="236" spans="1:9" ht="45.75" customHeight="1">
       <c r="A236" s="12" t="s">
-        <v>358</v>
+        <v>356</v>
       </c>
       <c r="B236" s="13" t="s">
         <v>11</v>
@@ -9483,52 +9456,52 @@
         <v>12</v>
       </c>
       <c r="D236" s="14" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="E236" s="14" t="s">
-        <v>359</v>
+        <v>357</v>
       </c>
       <c r="F236" s="14" t="s">
-        <v>343</v>
+        <v>341</v>
       </c>
       <c r="G236" s="23" t="s">
-        <v>344</v>
+        <v>342</v>
       </c>
       <c r="H236" s="12" t="s">
-        <v>358</v>
+        <v>356</v>
       </c>
       <c r="I236" s="21"/>
     </row>
     <row r="237" spans="1:9" ht="30.75" customHeight="1">
       <c r="A237" s="77" t="s">
+        <v>358</v>
+      </c>
+      <c r="B237" s="13" t="s">
+        <v>331</v>
+      </c>
+      <c r="C237" s="14" t="s">
+        <v>12</v>
+      </c>
+      <c r="D237" s="14" t="s">
+        <v>359</v>
+      </c>
+      <c r="E237" s="14" t="s">
         <v>360</v>
       </c>
-      <c r="B237" s="13" t="s">
-        <v>333</v>
-      </c>
-      <c r="C237" s="14" t="s">
-        <v>12</v>
-      </c>
-      <c r="D237" s="14" t="s">
-        <v>361</v>
-      </c>
-      <c r="E237" s="14" t="s">
-        <v>362</v>
-      </c>
       <c r="F237" s="14" t="s">
-        <v>343</v>
+        <v>341</v>
       </c>
       <c r="G237" s="23" t="s">
-        <v>344</v>
+        <v>342</v>
       </c>
       <c r="H237" s="77" t="s">
-        <v>360</v>
+        <v>358</v>
       </c>
       <c r="I237" s="21"/>
     </row>
     <row r="238" spans="1:9" ht="13.5" customHeight="1">
       <c r="A238" t="s">
-        <v>365</v>
+        <v>363</v>
       </c>
       <c r="B238"/>
       <c r="C238" t="s">
@@ -9545,12 +9518,12 @@
         <v>16</v>
       </c>
       <c r="H238" t="s">
-        <v>365</v>
+        <v>363</v>
       </c>
     </row>
     <row r="239" spans="1:9" ht="13.5" customHeight="1">
       <c r="A239" t="s">
-        <v>366</v>
+        <v>364</v>
       </c>
       <c r="B239"/>
       <c r="C239" t="s">
@@ -9567,7 +9540,7 @@
         <v>16</v>
       </c>
       <c r="H239" t="s">
-        <v>366</v>
+        <v>364</v>
       </c>
     </row>
     <row r="240" spans="1:9" ht="13.5" customHeight="1">
@@ -9725,7 +9698,7 @@
       <c r="I253" s="10"/>
     </row>
   </sheetData>
-  <autoFilter ref="A1:I237" xr:uid="{00000000-0001-0000-0000-000000000000}"/>
+  <autoFilter ref="A1:I239" xr:uid="{00000000-0001-0000-0000-000000000000}"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait"/>
   <headerFooter>
@@ -9802,7 +9775,7 @@
       <c r="A7" s="10"/>
       <c r="B7" s="80"/>
       <c r="C7" s="12" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="D7" s="21"/>
       <c r="E7" s="80"/>
@@ -9815,7 +9788,7 @@
       <c r="D8" s="21"/>
       <c r="E8" s="80"/>
       <c r="F8" s="12" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
     </row>
     <row r="9" spans="1:6" ht="13.5" customHeight="1">
@@ -9881,7 +9854,7 @@
       <c r="D16" s="21"/>
       <c r="E16" s="80"/>
       <c r="F16" s="12" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
     </row>
     <row r="17" spans="1:6" ht="13.5" customHeight="1">
